--- a/10_SRS/database_layout.xlsx
+++ b/10_SRS/database_layout.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\duluong\store\japtool\10_SRS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{644D0363-4B59-4910-9D3C-5FC32A8C04C2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TBL_DESC!$A$1:$F$130</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TBL_DESC (BAK)'!$A$1:$F$190</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -732,147 +738,147 @@
   </si>
   <si>
     <t>bookID</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>reference to bookMaster model</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>memberSetID</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>reference to memberSet via "memberSetID"</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>memberSet</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>reference to learning model</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>joinDate</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>leaveDate</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>sort</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>media</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>?</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>selfLearning</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>userID</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>bookID</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>notes</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>status</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>userLearnHistory</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>learning</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>delete</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>learningID</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>bookDetailID</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>correct1</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>resultOption1</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>reference to vocabulary model</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>reference to kanji model</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>reference to grammar model</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>userTestResult</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>answer</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>result</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>boolean</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>phuong an user da tra loi</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ket qua dung sai so voi dap an</t>
-    <phoneticPr fontId="11"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>selfLearning</t>
@@ -956,7 +962,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="10"/>
@@ -983,42 +989,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <i/>
       <sz val="10"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF0432FF"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="3"/>
@@ -1039,27 +1010,66 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FF0432FF"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial Unicode MS"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1364,74 +1374,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1441,135 +1387,196 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1657,6 +1664,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1678,7 +1688,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Alternate Process 2"/>
+        <xdr:cNvPr id="3" name="Alternate Process 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1748,7 +1764,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Alternate Process 3"/>
+        <xdr:cNvPr id="4" name="Alternate Process 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1818,7 +1840,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Alternate Process 4"/>
+        <xdr:cNvPr id="5" name="Alternate Process 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1888,7 +1916,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Alternate Process 5"/>
+        <xdr:cNvPr id="6" name="Alternate Process 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1958,7 +1992,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Alternate Process 6"/>
+        <xdr:cNvPr id="7" name="Alternate Process 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2028,7 +2068,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Alternate Process 7"/>
+        <xdr:cNvPr id="8" name="Alternate Process 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2098,7 +2144,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Alternate Process 8"/>
+        <xdr:cNvPr id="9" name="Alternate Process 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2168,7 +2220,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Alternate Process 9"/>
+        <xdr:cNvPr id="10" name="Alternate Process 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2238,7 +2296,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Elbow Connector 11"/>
+        <xdr:cNvPr id="12" name="Elbow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="4" idx="1"/>
@@ -2291,7 +2355,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Elbow Connector 13"/>
+        <xdr:cNvPr id="14" name="Elbow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="5" idx="1"/>
@@ -2344,7 +2414,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Elbow Connector 16"/>
+        <xdr:cNvPr id="17" name="Elbow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="6" idx="1"/>
@@ -2397,7 +2473,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Elbow Connector 17"/>
+        <xdr:cNvPr id="18" name="Elbow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="7" idx="1"/>
@@ -2450,7 +2532,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Elbow Connector 18"/>
+        <xdr:cNvPr id="19" name="Elbow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="8" idx="1"/>
@@ -2505,7 +2593,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Elbow Connector 19"/>
+        <xdr:cNvPr id="20" name="Elbow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="9" idx="1"/>
@@ -2558,7 +2652,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Elbow Connector 20"/>
+        <xdr:cNvPr id="21" name="Elbow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="3"/>
           <a:endCxn id="9" idx="1"/>
@@ -2611,7 +2711,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Elbow Connector 21"/>
+        <xdr:cNvPr id="22" name="Elbow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="3"/>
           <a:endCxn id="9" idx="1"/>
@@ -2664,7 +2770,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Elbow Connector 22"/>
+        <xdr:cNvPr id="23" name="Elbow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="8" idx="3"/>
           <a:endCxn id="10" idx="1"/>
@@ -2717,7 +2829,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Alternate Process 39"/>
+        <xdr:cNvPr id="40" name="Alternate Process 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2787,7 +2905,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Alternate Process 40"/>
+        <xdr:cNvPr id="41" name="Alternate Process 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2857,7 +2981,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Alternate Process 41"/>
+        <xdr:cNvPr id="42" name="Alternate Process 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2927,7 +3057,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Alternate Process 42"/>
+        <xdr:cNvPr id="43" name="Alternate Process 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2997,7 +3133,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Alternate Process 43"/>
+        <xdr:cNvPr id="44" name="Alternate Process 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3067,7 +3209,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="Elbow Connector 62"/>
+        <xdr:cNvPr id="63" name="Elbow Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="40" idx="3"/>
           <a:endCxn id="41" idx="1"/>
@@ -3122,7 +3270,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="Elbow Connector 63"/>
+        <xdr:cNvPr id="64" name="Elbow Connector 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="42" idx="3"/>
           <a:endCxn id="43" idx="1"/>
@@ -3177,7 +3331,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="Elbow Connector 64"/>
+        <xdr:cNvPr id="65" name="Elbow Connector 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="42" idx="3"/>
           <a:endCxn id="44" idx="1"/>
@@ -3232,7 +3392,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Alternate Process 41"/>
+        <xdr:cNvPr id="27" name="Alternate Process 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3302,7 +3468,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Alternate Process 41"/>
+        <xdr:cNvPr id="36" name="Alternate Process 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3372,7 +3544,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Alternate Process 41"/>
+        <xdr:cNvPr id="37" name="Alternate Process 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3442,7 +3620,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Elbow Connector 37"/>
+        <xdr:cNvPr id="38" name="Elbow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="36" idx="3"/>
           <a:endCxn id="37" idx="1"/>
@@ -3497,7 +3681,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Alternate Process 41"/>
+        <xdr:cNvPr id="45" name="Alternate Process 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3567,7 +3757,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Alternate Process 41"/>
+        <xdr:cNvPr id="46" name="Alternate Process 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3637,7 +3833,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Elbow Connector 46"/>
+        <xdr:cNvPr id="47" name="Elbow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="46" idx="3"/>
           <a:endCxn id="36" idx="1"/>
@@ -3692,7 +3894,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Elbow Connector 47"/>
+        <xdr:cNvPr id="48" name="Elbow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="45" idx="3"/>
           <a:endCxn id="27" idx="1"/>
@@ -3990,121 +4198,122 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="97" style="26" customWidth="1"/>
-    <col min="4" max="16384" width="14.42578125" style="26"/>
+    <col min="1" max="1" width="4.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="97" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="24.9" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="4" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="28" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="24.9" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="19"/>
-    </row>
-    <row r="5" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="28" t="s">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="24.9" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="19"/>
-    </row>
-    <row r="6" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="28" t="s">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="24.9" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="19"/>
-    </row>
-    <row r="7" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="28" t="s">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="24.9" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="19"/>
-    </row>
-    <row r="8" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19" t="s">
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" ht="24.9" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="19"/>
-    </row>
-    <row r="9" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="28" t="s">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="24.9" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="19"/>
-    </row>
-    <row r="10" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19" t="s">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="24.9" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="28" t="s">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="24.9" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:3" ht="24.95" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19" t="s">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" ht="24.9" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="7" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4114,678 +4323,678 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="97" style="19" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" style="19" customWidth="1"/>
-    <col min="5" max="16384" width="14.42578125" style="19"/>
+    <col min="1" max="1" width="4.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23" style="4" customWidth="1"/>
+    <col min="3" max="3" width="97" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="14.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51.75">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" ht="48.6">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34.5">
-      <c r="A2" s="6">
+    <row r="2" spans="1:4" ht="32.4">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34.5">
-      <c r="A3" s="6">
+    <row r="3" spans="1:4" ht="32.4">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="69">
-      <c r="A4" s="6">
+    <row r="4" spans="1:4" ht="64.8">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="69">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="1:4" ht="64.8">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.5">
-      <c r="A6" s="6">
+    <row r="6" spans="1:4" ht="32.4">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="69">
-      <c r="A7" s="6">
+    <row r="7" spans="1:4" ht="64.8">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34.5">
-      <c r="A8" s="6">
+    <row r="8" spans="1:4" ht="32.4">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34.5">
-      <c r="A9" s="6">
+    <row r="9" spans="1:4" ht="32.4">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34.5">
-      <c r="A10" s="6">
+    <row r="10" spans="1:4" ht="32.4">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34.5">
-      <c r="A11" s="6">
+    <row r="11" spans="1:4" ht="32.4">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34.5">
-      <c r="A12" s="6">
+    <row r="12" spans="1:4" ht="32.4">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="34.5">
-      <c r="A13" s="6">
+    <row r="13" spans="1:4" ht="32.4">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34.5">
-      <c r="A14" s="6">
+    <row r="14" spans="1:4" ht="32.4">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="13" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34.5">
-      <c r="A15" s="6">
+    <row r="15" spans="1:4" ht="32.4">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="13" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="6">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34.5">
-      <c r="A17" s="6">
+    <row r="17" spans="1:4" ht="32.4">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="13" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="34.5">
-      <c r="A18" s="6">
+    <row r="18" spans="1:4" ht="32.4">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="51.75">
-      <c r="A19" s="6">
+    <row r="19" spans="1:4" ht="64.8">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="51.75">
-      <c r="A20" s="6">
+    <row r="20" spans="1:4" ht="48.6">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="51.75">
-      <c r="A21" s="6">
+    <row r="21" spans="1:4" ht="48.6">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="34.5">
-      <c r="A22" s="6">
+    <row r="22" spans="1:4" ht="32.4">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="34.5">
-      <c r="A23" s="6">
+    <row r="23" spans="1:4" ht="32.4">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="11"/>
+      <c r="B24" s="19"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="B25" s="11"/>
+      <c r="B25" s="19"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="B26" s="11"/>
+      <c r="B26" s="19"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="B27" s="11"/>
+      <c r="B27" s="19"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="B28" s="11"/>
+      <c r="B28" s="19"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="B29" s="11"/>
+      <c r="B29" s="19"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="B30" s="11"/>
+      <c r="B30" s="19"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="B31" s="11"/>
+      <c r="B31" s="19"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="B32" s="11"/>
+      <c r="B32" s="19"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="11"/>
+      <c r="B33" s="19"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="11"/>
+      <c r="B34" s="19"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="11"/>
+      <c r="B35" s="19"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="11"/>
+      <c r="B36" s="19"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="11"/>
+      <c r="B37" s="19"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="11"/>
+      <c r="B38" s="19"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="11"/>
+      <c r="B39" s="19"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="11"/>
+      <c r="B40" s="19"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="11"/>
+      <c r="B41" s="19"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="11"/>
+      <c r="B42" s="19"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="11"/>
+      <c r="B43" s="19"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="11"/>
+      <c r="B44" s="19"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="11"/>
+      <c r="B45" s="19"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="11"/>
+      <c r="B46" s="19"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="11"/>
+      <c r="B47" s="19"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="11"/>
+      <c r="B48" s="19"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="11"/>
+      <c r="B49" s="19"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="11"/>
+      <c r="B50" s="19"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="11"/>
+      <c r="B51" s="19"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="11"/>
+      <c r="B52" s="19"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="11"/>
+      <c r="B53" s="19"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="11"/>
+      <c r="B54" s="19"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="11"/>
+      <c r="B55" s="19"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="11"/>
+      <c r="B56" s="19"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="11"/>
+      <c r="B57" s="19"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="11"/>
+      <c r="B58" s="19"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="11"/>
+      <c r="B59" s="19"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="11"/>
+      <c r="B60" s="19"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="11"/>
+      <c r="B61" s="19"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="11"/>
+      <c r="B62" s="19"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="11"/>
+      <c r="B63" s="19"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="11"/>
+      <c r="B64" s="19"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="11"/>
+      <c r="B65" s="19"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="11"/>
+      <c r="B66" s="19"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="11"/>
+      <c r="B67" s="19"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="11"/>
+      <c r="B68" s="19"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="11"/>
+      <c r="B69" s="19"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="11"/>
+      <c r="B70" s="19"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="11"/>
+      <c r="B71" s="19"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="11"/>
+      <c r="B72" s="19"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="11"/>
+      <c r="B73" s="19"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="11"/>
+      <c r="B74" s="19"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="11"/>
+      <c r="B75" s="19"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="11"/>
+      <c r="B76" s="19"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="11"/>
+      <c r="B77" s="19"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="11"/>
+      <c r="B78" s="19"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="11"/>
+      <c r="B79" s="19"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="11"/>
+      <c r="B80" s="19"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="11"/>
+      <c r="B81" s="19"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="11"/>
+      <c r="B82" s="19"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="11"/>
+      <c r="B83" s="19"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="11"/>
+      <c r="B84" s="19"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="11"/>
+      <c r="B85" s="19"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="11"/>
+      <c r="B86" s="19"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="11"/>
+      <c r="B87" s="19"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="11"/>
+      <c r="B88" s="19"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="11"/>
+      <c r="B89" s="19"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="11"/>
+      <c r="B90" s="19"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="11"/>
+      <c r="B91" s="19"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="11"/>
+      <c r="B92" s="19"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="11"/>
+      <c r="B93" s="19"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="11"/>
+      <c r="B94" s="19"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="11"/>
+      <c r="B95" s="19"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="11"/>
+      <c r="B96" s="19"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="11"/>
+      <c r="B97" s="19"/>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="11"/>
+      <c r="B98" s="19"/>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="11"/>
+      <c r="B99" s="19"/>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="11"/>
+      <c r="B100" s="19"/>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="11"/>
+      <c r="B101" s="19"/>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="11"/>
+      <c r="B102" s="19"/>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="11"/>
+      <c r="B103" s="19"/>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="11"/>
+      <c r="B104" s="19"/>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="11"/>
+      <c r="B105" s="19"/>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="11"/>
+      <c r="B106" s="19"/>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="11"/>
+      <c r="B107" s="19"/>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="11"/>
+      <c r="B108" s="19"/>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="11"/>
+      <c r="B109" s="19"/>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="11"/>
+      <c r="B110" s="19"/>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="11"/>
+      <c r="B111" s="19"/>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="11"/>
+      <c r="B112" s="19"/>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="11"/>
+      <c r="B113" s="19"/>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="11"/>
+      <c r="B114" s="19"/>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="11"/>
+      <c r="B115" s="19"/>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="11"/>
+      <c r="B116" s="19"/>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="11"/>
+      <c r="B117" s="19"/>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="11"/>
+      <c r="B118" s="19"/>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="11"/>
+      <c r="B119" s="19"/>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="11"/>
+      <c r="B120" s="19"/>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="11"/>
+      <c r="B121" s="19"/>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="11"/>
+      <c r="B122" s="19"/>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="11"/>
+      <c r="B123" s="19"/>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="11"/>
+      <c r="B124" s="19"/>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="11"/>
+      <c r="B125" s="19"/>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="11"/>
+      <c r="B126" s="19"/>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="11"/>
+      <c r="B127" s="19"/>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="11"/>
+      <c r="B128" s="19"/>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="11"/>
+      <c r="B129" s="19"/>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="11"/>
+      <c r="B130" s="19"/>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="11"/>
+      <c r="B131" s="19"/>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="11"/>
+      <c r="B132" s="19"/>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="11"/>
+      <c r="B133" s="19"/>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="11"/>
+      <c r="B134" s="19"/>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="11"/>
+      <c r="B135" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4796,7 +5005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -4804,2191 +5013,2191 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="78.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="10.85546875" style="11"/>
+    <col min="1" max="1" width="9.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="25" style="19" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="78.44140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" style="19" customWidth="1"/>
+    <col min="7" max="16384" width="10.88671875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="24" customFormat="1">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="23" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6">
+      <c r="A2" s="10">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="65"/>
+      <c r="D2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6">
+      <c r="A3" s="10">
         <f t="shared" ref="A3:A7" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="65"/>
+      <c r="D3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6">
+      <c r="A4" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="F4" s="65"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6">
+      <c r="A5" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="F5" s="65"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6">
+      <c r="A6" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="78" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="65"/>
-    </row>
-    <row r="7" spans="1:6" s="41" customFormat="1">
-      <c r="A7" s="6">
+      <c r="E6" s="14"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:6" s="32" customFormat="1">
+      <c r="A7" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="38" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="F7" s="66"/>
-    </row>
-    <row r="8" spans="1:6" s="41" customFormat="1">
-      <c r="A8" s="6">
-        <f t="shared" ref="A3:A68" si="1">ROW()-1</f>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:6" s="32" customFormat="1">
+      <c r="A8" s="10">
+        <f t="shared" ref="A8:A68" si="1">ROW()-1</f>
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="38" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="F8" s="66"/>
-    </row>
-    <row r="9" spans="1:6" s="41" customFormat="1">
-      <c r="A9" s="6">
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:6" s="32" customFormat="1">
+      <c r="A9" s="10">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="38" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="F9" s="66"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6">
+      <c r="A10" s="10">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="65"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6">
+      <c r="A11" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="65"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6">
+      <c r="A12" s="10">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="65"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6">
+      <c r="A13" s="10">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="65"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6">
+      <c r="A14" s="10">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F14" s="65"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="6">
+      <c r="A15" s="10">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="F15" s="65"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="6">
+      <c r="A16" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="65"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6">
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" ht="32.4">
+      <c r="A17" s="10">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="65"/>
-    </row>
-    <row r="18" spans="1:6" s="41" customFormat="1">
-      <c r="A18" s="6">
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" s="32" customFormat="1">
+      <c r="A18" s="10">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="66"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6">
+      <c r="A19" s="10">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="65"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="6">
+      <c r="A20" s="10">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F20" s="65"/>
-    </row>
-    <row r="21" spans="1:6" ht="34.5">
-      <c r="A21" s="6">
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="1:6" ht="32.4">
+      <c r="A21" s="10">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="65"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="6">
+      <c r="A22" s="10">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="F22" s="65"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="6">
+      <c r="A23" s="10">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="F23" s="65"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="6">
+      <c r="A24" s="10">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="65"/>
+      <c r="D24" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="6">
+      <c r="A25" s="10">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="65"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="6">
+      <c r="A26" s="10">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="F26" s="65"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="6">
+      <c r="A27" s="10">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="F27" s="65"/>
-    </row>
-    <row r="28" spans="1:6" s="41" customFormat="1">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38" t="s">
+      <c r="F27" s="27"/>
+    </row>
+    <row r="28" spans="1:6" s="32" customFormat="1">
+      <c r="A28" s="35"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="F28" s="66"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="6">
+      <c r="A29" s="10">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="65"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="6">
+      <c r="A30" s="10">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="65"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="6">
+      <c r="A31" s="10">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="36"/>
+      <c r="C31" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="65"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="6">
+      <c r="A32" s="10">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="65"/>
+      <c r="D32" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="6">
+      <c r="A33" s="10">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="65"/>
+      <c r="D33" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="27"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="6">
+      <c r="A34" s="10">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="25"/>
+      <c r="C34" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="65"/>
+      <c r="D34" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="27"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="6">
+      <c r="A35" s="10">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="65"/>
+      <c r="D35" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="6">
+      <c r="A36" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="25"/>
+      <c r="C36" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="F36" s="65"/>
+      <c r="F36" s="27"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="6">
+      <c r="A37" s="10">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="65"/>
+      <c r="D37" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="27"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="6">
+      <c r="A38" s="10">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="25"/>
+      <c r="C38" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="65"/>
+      <c r="D38" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="27"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="6">
+      <c r="A39" s="10">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="8" t="s">
+      <c r="B39" s="25"/>
+      <c r="C39" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="65"/>
+      <c r="F39" s="27"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="6">
+      <c r="A40" s="10">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="8" t="s">
+      <c r="B40" s="25"/>
+      <c r="C40" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="26"/>
+      <c r="E40" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F40" s="65"/>
+      <c r="F40" s="27"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="6">
+      <c r="A41" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="8" t="s">
+      <c r="B41" s="25"/>
+      <c r="C41" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9" t="s">
+      <c r="D41" s="26"/>
+      <c r="E41" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="65"/>
+      <c r="F41" s="27"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="6">
+      <c r="A42" s="10">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="8" t="s">
+      <c r="B42" s="25"/>
+      <c r="C42" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="65"/>
+      <c r="D42" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="27"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="6">
+      <c r="A43" s="10">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="8" t="s">
+      <c r="B43" s="25"/>
+      <c r="C43" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="F43" s="65"/>
-    </row>
-    <row r="44" spans="1:6" ht="86.25">
-      <c r="A44" s="6">
+      <c r="F43" s="27"/>
+    </row>
+    <row r="44" spans="1:6" ht="81">
+      <c r="A44" s="10">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="8" t="s">
+      <c r="B44" s="25"/>
+      <c r="C44" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="D44" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="F44" s="65"/>
+      <c r="F44" s="27"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="6">
+      <c r="A45" s="10">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="8" t="s">
+      <c r="B45" s="36"/>
+      <c r="C45" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="65"/>
+      <c r="D45" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="27"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="6">
+      <c r="A46" s="10">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="65"/>
+      <c r="D46" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="27"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="6">
+      <c r="A47" s="10">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="8" t="s">
+      <c r="B47" s="25"/>
+      <c r="C47" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="65"/>
+      <c r="D47" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="27"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="6">
+      <c r="A48" s="10">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="8" t="s">
+      <c r="B48" s="25"/>
+      <c r="C48" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="65"/>
+      <c r="D48" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="27"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="6">
+      <c r="A49" s="10">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="8" t="s">
+      <c r="B49" s="25"/>
+      <c r="C49" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="65"/>
+      <c r="D49" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="27"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="6">
+      <c r="A50" s="10">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="8" t="s">
+      <c r="B50" s="25"/>
+      <c r="C50" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="65"/>
+      <c r="D50" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="27"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="6">
+      <c r="A51" s="10">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="8" t="s">
+      <c r="B51" s="25"/>
+      <c r="C51" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="26"/>
+      <c r="E51" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F51" s="65"/>
+      <c r="F51" s="27"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="6">
+      <c r="A52" s="10">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="8" t="s">
+      <c r="B52" s="25"/>
+      <c r="C52" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9" t="s">
+      <c r="D52" s="26"/>
+      <c r="E52" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="F52" s="65"/>
+      <c r="F52" s="27"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="6">
+      <c r="A53" s="10">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="8" t="s">
+      <c r="B53" s="25"/>
+      <c r="C53" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="65"/>
+      <c r="D53" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="27"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="6">
+      <c r="A54" s="10">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="8" t="s">
+      <c r="B54" s="25"/>
+      <c r="C54" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="F54" s="65"/>
-    </row>
-    <row r="55" spans="1:6" ht="86.25">
-      <c r="A55" s="6">
+      <c r="F54" s="27"/>
+    </row>
+    <row r="55" spans="1:6" ht="81">
+      <c r="A55" s="10">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="8" t="s">
+      <c r="B55" s="25"/>
+      <c r="C55" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="9" t="s">
+      <c r="D55" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="F55" s="65"/>
+      <c r="F55" s="27"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="6">
+      <c r="A56" s="10">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="8" t="s">
+      <c r="B56" s="36"/>
+      <c r="C56" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="65"/>
+      <c r="D56" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="27"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="6">
+      <c r="A57" s="10">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="65"/>
+      <c r="D57" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="27"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="6">
+      <c r="A58" s="10">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="8" t="s">
+      <c r="B58" s="25"/>
+      <c r="C58" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="65"/>
+      <c r="D58" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="27"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="6">
+      <c r="A59" s="10">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="8" t="s">
+      <c r="B59" s="25"/>
+      <c r="C59" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="65"/>
+      <c r="D59" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="F59" s="27"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="6">
+      <c r="A60" s="10">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="8" t="s">
+      <c r="B60" s="25"/>
+      <c r="C60" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="9" t="s">
+      <c r="D60" s="26"/>
+      <c r="E60" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="F60" s="65"/>
+      <c r="F60" s="27"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="6">
+      <c r="A61" s="10">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="8" t="s">
+      <c r="B61" s="25"/>
+      <c r="C61" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9" t="s">
+      <c r="D61" s="26"/>
+      <c r="E61" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F61" s="65"/>
+      <c r="F61" s="27"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="6">
+      <c r="A62" s="10">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="8" t="s">
+      <c r="B62" s="25"/>
+      <c r="C62" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="9" t="s">
+      <c r="D62" s="26"/>
+      <c r="E62" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F62" s="65"/>
+      <c r="F62" s="27"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="6">
+      <c r="A63" s="10">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="8" t="s">
+      <c r="B63" s="25"/>
+      <c r="C63" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="9" t="s">
+      <c r="D63" s="26"/>
+      <c r="E63" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F63" s="65"/>
+      <c r="F63" s="27"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="6">
+      <c r="A64" s="10">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="8" t="s">
+      <c r="B64" s="25"/>
+      <c r="C64" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="65"/>
+      <c r="D64" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="27"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="6">
+      <c r="A65" s="10">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="8" t="s">
+      <c r="B65" s="25"/>
+      <c r="C65" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="F65" s="65"/>
-    </row>
-    <row r="66" spans="1:6" ht="86.25">
-      <c r="A66" s="6">
+      <c r="F65" s="27"/>
+    </row>
+    <row r="66" spans="1:6" ht="81">
+      <c r="A66" s="10">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="8" t="s">
+      <c r="B66" s="25"/>
+      <c r="C66" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="9" t="s">
+      <c r="D66" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="F66" s="65"/>
+      <c r="F66" s="27"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="6">
+      <c r="A67" s="10">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="8" t="s">
+      <c r="B67" s="36"/>
+      <c r="C67" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="65"/>
+      <c r="D67" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="F67" s="27"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="6">
+      <c r="A68" s="10">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="F68" s="65"/>
+      <c r="F68" s="27"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="6">
+      <c r="A69" s="10">
         <f t="shared" ref="A69:A132" si="2">ROW()-1</f>
         <v>68</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="8" t="s">
+      <c r="B69" s="25"/>
+      <c r="C69" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="F69" s="65"/>
+      <c r="F69" s="27"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="6">
+      <c r="A70" s="10">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="8" t="s">
+      <c r="B70" s="25"/>
+      <c r="C70" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="F70" s="65"/>
+      <c r="F70" s="27"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="6">
+      <c r="A71" s="10">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="8" t="s">
+      <c r="B71" s="25"/>
+      <c r="C71" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="65"/>
+      <c r="D71" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="27"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="6">
+      <c r="A72" s="10">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="8" t="s">
+      <c r="B72" s="36"/>
+      <c r="C72" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="65"/>
+      <c r="D72" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="F72" s="27"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="6">
+      <c r="A73" s="10">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="65"/>
+      <c r="D73" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="F73" s="27"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="6">
+      <c r="A74" s="10">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="8" t="s">
+      <c r="B74" s="25"/>
+      <c r="C74" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="65"/>
+      <c r="D74" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="14"/>
+      <c r="F74" s="27"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="6">
+      <c r="A75" s="10">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="8" t="s">
+      <c r="B75" s="25"/>
+      <c r="C75" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="9" t="s">
+      <c r="D75" s="26"/>
+      <c r="E75" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="F75" s="65"/>
+      <c r="F75" s="27"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="6">
+      <c r="A76" s="10">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="8" t="s">
+      <c r="B76" s="25"/>
+      <c r="C76" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="65"/>
+      <c r="D76" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="14"/>
+      <c r="F76" s="27"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="6">
+      <c r="A77" s="10">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="8" t="s">
+      <c r="B77" s="25"/>
+      <c r="C77" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="65"/>
+      <c r="D77" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="14"/>
+      <c r="F77" s="27"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="6">
+      <c r="A78" s="10">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="8" t="s">
+      <c r="B78" s="25"/>
+      <c r="C78" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="9" t="s">
+      <c r="D78" s="26"/>
+      <c r="E78" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F78" s="65"/>
+      <c r="F78" s="27"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="6">
+      <c r="A79" s="10">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="8" t="s">
+      <c r="B79" s="25"/>
+      <c r="C79" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="8"/>
-      <c r="E79" s="9" t="s">
+      <c r="D79" s="26"/>
+      <c r="E79" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F79" s="65"/>
+      <c r="F79" s="27"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="6">
+      <c r="A80" s="10">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="8" t="s">
+      <c r="B80" s="25"/>
+      <c r="C80" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="9" t="s">
+      <c r="D80" s="26"/>
+      <c r="E80" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F80" s="65"/>
+      <c r="F80" s="27"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="6">
+      <c r="A81" s="10">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="8" t="s">
+      <c r="B81" s="25"/>
+      <c r="C81" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="65"/>
+      <c r="D81" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="14"/>
+      <c r="F81" s="27"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="6">
+      <c r="A82" s="10">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="8" t="s">
+      <c r="B82" s="25"/>
+      <c r="C82" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="F82" s="65"/>
-    </row>
-    <row r="83" spans="1:6" ht="86.25">
-      <c r="A83" s="6">
+      <c r="F82" s="27"/>
+    </row>
+    <row r="83" spans="1:6" ht="81">
+      <c r="A83" s="10">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="8" t="s">
+      <c r="B83" s="25"/>
+      <c r="C83" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="9" t="s">
+      <c r="D83" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="F83" s="65"/>
+      <c r="F83" s="27"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="6">
+      <c r="A84" s="10">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="8" t="s">
+      <c r="B84" s="36"/>
+      <c r="C84" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84" s="9" t="s">
+      <c r="D84" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F84" s="65"/>
+      <c r="F84" s="27"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="6">
+      <c r="A85" s="10">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="F85" s="65"/>
+      <c r="F85" s="27"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="6">
+      <c r="A86" s="10">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="8" t="s">
+      <c r="B86" s="25"/>
+      <c r="C86" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="F86" s="65"/>
+      <c r="F86" s="27"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="6">
+      <c r="A87" s="10">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="8" t="s">
+      <c r="B87" s="25"/>
+      <c r="C87" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D87" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E87" s="9" t="s">
+      <c r="D87" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F87" s="65"/>
+      <c r="F87" s="27"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="6">
+      <c r="A88" s="10">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="8" t="s">
+      <c r="B88" s="25"/>
+      <c r="C88" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="9" t="s">
+      <c r="D88" s="26"/>
+      <c r="E88" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F88" s="65"/>
+      <c r="F88" s="27"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="6">
+      <c r="A89" s="10">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="8" t="s">
+      <c r="B89" s="25"/>
+      <c r="C89" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D89" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="9"/>
-      <c r="F89" s="65"/>
+      <c r="D89" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="14"/>
+      <c r="F89" s="27"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="6">
+      <c r="A90" s="10">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="8" t="s">
+      <c r="B90" s="25"/>
+      <c r="C90" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E90" s="9"/>
-      <c r="F90" s="65"/>
+      <c r="D90" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="14"/>
+      <c r="F90" s="27"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="6">
+      <c r="A91" s="10">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="8" t="s">
+      <c r="B91" s="25"/>
+      <c r="C91" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D91" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="65"/>
+      <c r="D91" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="14"/>
+      <c r="F91" s="27"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="6">
+      <c r="A92" s="10">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="8" t="s">
+      <c r="B92" s="25"/>
+      <c r="C92" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="65"/>
+      <c r="D92" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="14"/>
+      <c r="F92" s="27"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="6">
+      <c r="A93" s="10">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="38" t="s">
+      <c r="B93" s="36"/>
+      <c r="C93" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="D93" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E93" s="42"/>
-      <c r="F93" s="66"/>
+      <c r="D93" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="33"/>
+      <c r="F93" s="31"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="6">
+      <c r="A94" s="10">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="F94" s="65"/>
+      <c r="F94" s="27"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="6">
+      <c r="A95" s="10">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="38" t="s">
+      <c r="B95" s="25"/>
+      <c r="C95" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="D95" s="38" t="s">
+      <c r="D95" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="F95" s="66"/>
+      <c r="F95" s="31"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="6">
+      <c r="A96" s="10">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="B96" s="12"/>
-      <c r="C96" s="38" t="s">
+      <c r="B96" s="25"/>
+      <c r="C96" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D96" s="38" t="s">
+      <c r="D96" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="F96" s="66"/>
+      <c r="F96" s="31"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="6">
+      <c r="A97" s="10">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="38" t="s">
+      <c r="B97" s="25"/>
+      <c r="C97" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="D97" s="38" t="s">
+      <c r="D97" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="E97" s="42" t="s">
+      <c r="E97" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="F97" s="66"/>
+      <c r="F97" s="31"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="6">
+      <c r="A98" s="10">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="8" t="s">
+      <c r="B98" s="25"/>
+      <c r="C98" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E98" s="9"/>
-      <c r="F98" s="65"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="27"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="6">
+      <c r="A99" s="10">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="8" t="s">
+      <c r="B99" s="25"/>
+      <c r="C99" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E99" s="9"/>
-      <c r="F99" s="65"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="27"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="6">
+      <c r="A100" s="10">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="B100" s="12"/>
-      <c r="C100" s="8" t="s">
+      <c r="B100" s="25"/>
+      <c r="C100" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E100" s="9"/>
-      <c r="F100" s="65"/>
-    </row>
-    <row r="101" spans="1:6" s="41" customFormat="1">
-      <c r="A101" s="6">
+      <c r="E100" s="14"/>
+      <c r="F100" s="27"/>
+    </row>
+    <row r="101" spans="1:6" s="32" customFormat="1">
+      <c r="A101" s="10">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="F101" s="66"/>
+      <c r="F101" s="31"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="6">
+      <c r="A102" s="10">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="B102" s="12"/>
-      <c r="C102" s="38" t="s">
+      <c r="B102" s="25"/>
+      <c r="C102" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="D102" s="38" t="s">
+      <c r="D102" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="F102" s="66"/>
-    </row>
-    <row r="103" spans="1:6" s="41" customFormat="1">
-      <c r="A103" s="6">
+      <c r="F102" s="31"/>
+    </row>
+    <row r="103" spans="1:6" s="32" customFormat="1">
+      <c r="A103" s="10">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="B103" s="12"/>
-      <c r="C103" s="38" t="s">
+      <c r="B103" s="25"/>
+      <c r="C103" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F103" s="66"/>
-    </row>
-    <row r="104" spans="1:6" s="41" customFormat="1">
-      <c r="A104" s="6">
+      <c r="F103" s="31"/>
+    </row>
+    <row r="104" spans="1:6" s="32" customFormat="1">
+      <c r="A104" s="10">
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="B104" s="12"/>
-      <c r="C104" s="38" t="s">
+      <c r="B104" s="25"/>
+      <c r="C104" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="D104" s="38" t="s">
+      <c r="D104" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="E104" s="42" t="s">
+      <c r="E104" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="F104" s="66"/>
-    </row>
-    <row r="105" spans="1:6" s="41" customFormat="1">
-      <c r="A105" s="6">
+      <c r="F104" s="31"/>
+    </row>
+    <row r="105" spans="1:6" s="32" customFormat="1">
+      <c r="A105" s="10">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="B105" s="13"/>
-      <c r="C105" s="38" t="s">
+      <c r="B105" s="36"/>
+      <c r="C105" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="D105" s="38" t="s">
+      <c r="D105" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="E105" s="42" t="s">
+      <c r="E105" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="F105" s="66"/>
+      <c r="F105" s="31"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="6">
+      <c r="A106" s="10">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" s="9"/>
-      <c r="F106" s="65"/>
+      <c r="D106" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="14"/>
+      <c r="F106" s="27"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="6">
+      <c r="A107" s="10">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="B107" s="12"/>
-      <c r="C107" s="8" t="s">
+      <c r="B107" s="25"/>
+      <c r="C107" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D107" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E107" s="9"/>
-      <c r="F107" s="65"/>
+      <c r="D107" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107" s="14"/>
+      <c r="F107" s="27"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="6">
+      <c r="A108" s="10">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="B108" s="12"/>
-      <c r="C108" s="8" t="s">
+      <c r="B108" s="25"/>
+      <c r="C108" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D108" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E108" s="9"/>
-      <c r="F108" s="65"/>
+      <c r="D108" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" s="14"/>
+      <c r="F108" s="27"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="6">
+      <c r="A109" s="10">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="8" t="s">
+      <c r="B109" s="25"/>
+      <c r="C109" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D109" s="8"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="65"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="27"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="6">
+      <c r="A110" s="10">
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="B110" s="12"/>
-      <c r="C110" s="8" t="s">
+      <c r="B110" s="25"/>
+      <c r="C110" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E110" s="9"/>
-      <c r="F110" s="65"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="27"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="6">
+      <c r="A111" s="10">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="B111" s="13"/>
-      <c r="C111" s="8" t="s">
+      <c r="B111" s="36"/>
+      <c r="C111" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D111" s="8"/>
-      <c r="E111" s="9" t="s">
+      <c r="D111" s="26"/>
+      <c r="E111" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F111" s="65"/>
+      <c r="F111" s="27"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="6">
+      <c r="A112" s="10">
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E112" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="F112" s="67"/>
+      <c r="F112" s="37"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="6">
+      <c r="A113" s="10">
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="8" t="s">
+      <c r="B113" s="25"/>
+      <c r="C113" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="F113" s="67"/>
+      <c r="F113" s="37"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="6">
+      <c r="A114" s="10">
         <f t="shared" si="2"/>
         <v>113</v>
       </c>
-      <c r="B114" s="12"/>
-      <c r="C114" s="8" t="s">
+      <c r="B114" s="25"/>
+      <c r="C114" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="65"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="27"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="6">
+      <c r="A115" s="10">
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="8" t="s">
+      <c r="B115" s="25"/>
+      <c r="C115" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="65"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="27"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="6">
+      <c r="A116" s="10">
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
-      <c r="B116" s="12"/>
-      <c r="C116" s="8" t="s">
+      <c r="B116" s="25"/>
+      <c r="C116" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="D116" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E116" s="9"/>
-      <c r="F116" s="65"/>
+      <c r="D116" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="14"/>
+      <c r="F116" s="27"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="6">
+      <c r="A117" s="10">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="B117" s="12"/>
-      <c r="C117" s="8" t="s">
+      <c r="B117" s="25"/>
+      <c r="C117" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="E117" s="9"/>
-      <c r="F117" s="65"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="27"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="6">
+      <c r="A118" s="10">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8" t="s">
+      <c r="C118" s="26"/>
+      <c r="D118" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="E118" s="9"/>
-      <c r="F118" s="65"/>
-    </row>
-    <row r="119" spans="1:6" s="41" customFormat="1">
-      <c r="A119" s="6">
+      <c r="E118" s="14"/>
+      <c r="F118" s="27"/>
+    </row>
+    <row r="119" spans="1:6" s="32" customFormat="1">
+      <c r="A119" s="10">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C119" s="38" t="s">
+      <c r="C119" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="D119" s="38" t="s">
+      <c r="D119" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="42"/>
-      <c r="F119" s="66"/>
-    </row>
-    <row r="120" spans="1:6" s="41" customFormat="1" ht="34.5">
-      <c r="A120" s="6">
+      <c r="E119" s="33"/>
+      <c r="F119" s="31"/>
+    </row>
+    <row r="120" spans="1:6" s="32" customFormat="1" ht="32.4">
+      <c r="A120" s="10">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="B120" s="12"/>
-      <c r="C120" s="38" t="s">
+      <c r="B120" s="25"/>
+      <c r="C120" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D120" s="38" t="s">
+      <c r="D120" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="E120" s="39" t="s">
+      <c r="E120" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="F120" s="66"/>
-    </row>
-    <row r="121" spans="1:6" s="41" customFormat="1">
-      <c r="A121" s="6">
+      <c r="F120" s="31"/>
+    </row>
+    <row r="121" spans="1:6" s="32" customFormat="1">
+      <c r="A121" s="10">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="38" t="s">
+      <c r="B121" s="25"/>
+      <c r="C121" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="D121" s="38" t="s">
+      <c r="D121" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E121" s="39" t="s">
+      <c r="E121" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="F121" s="66"/>
-    </row>
-    <row r="122" spans="1:6" s="41" customFormat="1" ht="15" customHeight="1">
-      <c r="A122" s="6">
+      <c r="F121" s="31"/>
+    </row>
+    <row r="122" spans="1:6" s="32" customFormat="1" ht="15" customHeight="1">
+      <c r="A122" s="10">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="B122" s="62"/>
-      <c r="C122" s="38" t="s">
+      <c r="B122" s="38"/>
+      <c r="C122" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D122" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E122" s="42" t="s">
+      <c r="D122" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="F122" s="66"/>
-    </row>
-    <row r="123" spans="1:6" s="41" customFormat="1">
-      <c r="A123" s="6">
+      <c r="F122" s="31"/>
+    </row>
+    <row r="123" spans="1:6" s="32" customFormat="1">
+      <c r="A123" s="10">
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="B123" s="62"/>
-      <c r="C123" s="38" t="s">
+      <c r="B123" s="38"/>
+      <c r="C123" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D123" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E123" s="42" t="s">
+      <c r="D123" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="F123" s="66"/>
-    </row>
-    <row r="124" spans="1:6" s="41" customFormat="1">
-      <c r="A124" s="6">
+      <c r="F123" s="31"/>
+    </row>
+    <row r="124" spans="1:6" s="32" customFormat="1">
+      <c r="A124" s="10">
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
-      <c r="B124" s="62"/>
-      <c r="C124" s="38" t="s">
+      <c r="B124" s="38"/>
+      <c r="C124" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D124" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E124" s="42"/>
-      <c r="F124" s="66"/>
-    </row>
-    <row r="125" spans="1:6" s="41" customFormat="1">
-      <c r="A125" s="6">
+      <c r="D124" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" s="33"/>
+      <c r="F124" s="31"/>
+    </row>
+    <row r="125" spans="1:6" s="32" customFormat="1">
+      <c r="A125" s="10">
         <f t="shared" si="2"/>
         <v>124</v>
       </c>
-      <c r="B125" s="62"/>
-      <c r="C125" s="38" t="s">
+      <c r="B125" s="38"/>
+      <c r="C125" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D125" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E125" s="42"/>
-      <c r="F125" s="66"/>
-    </row>
-    <row r="126" spans="1:6" s="41" customFormat="1">
-      <c r="A126" s="6">
+      <c r="D125" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" s="33"/>
+      <c r="F125" s="31"/>
+    </row>
+    <row r="126" spans="1:6" s="32" customFormat="1">
+      <c r="A126" s="10">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="B126" s="62"/>
-      <c r="C126" s="38" t="s">
+      <c r="B126" s="38"/>
+      <c r="C126" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D126" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E126" s="42"/>
-      <c r="F126" s="66"/>
-    </row>
-    <row r="127" spans="1:6" s="41" customFormat="1">
-      <c r="A127" s="6">
+      <c r="D126" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" s="33"/>
+      <c r="F126" s="31"/>
+    </row>
+    <row r="127" spans="1:6" s="32" customFormat="1">
+      <c r="A127" s="10">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="B127" s="62"/>
-      <c r="C127" s="38" t="s">
+      <c r="B127" s="38"/>
+      <c r="C127" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D127" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E127" s="42"/>
-      <c r="F127" s="66"/>
-    </row>
-    <row r="128" spans="1:6" s="41" customFormat="1">
-      <c r="A128" s="6">
+      <c r="D127" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" s="33"/>
+      <c r="F127" s="31"/>
+    </row>
+    <row r="128" spans="1:6" s="32" customFormat="1">
+      <c r="A128" s="10">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="B128" s="58" t="s">
+      <c r="B128" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E128" s="9" t="s">
+      <c r="E128" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="F128" s="66"/>
-    </row>
-    <row r="129" spans="1:6" s="41" customFormat="1">
-      <c r="A129" s="6">
+      <c r="F128" s="31"/>
+    </row>
+    <row r="129" spans="1:6" s="32" customFormat="1">
+      <c r="A129" s="10">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="B129" s="59"/>
-      <c r="C129" s="38" t="s">
+      <c r="B129" s="40"/>
+      <c r="C129" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="E129" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="F129" s="66"/>
-    </row>
-    <row r="130" spans="1:6" s="41" customFormat="1">
-      <c r="A130" s="6">
+      <c r="F129" s="31"/>
+    </row>
+    <row r="130" spans="1:6" s="32" customFormat="1">
+      <c r="A130" s="10">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="B130" s="63"/>
-      <c r="C130" s="38" t="s">
+      <c r="B130" s="41"/>
+      <c r="C130" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="D130" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E130" s="42" t="s">
+      <c r="D130" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="F130" s="66"/>
+      <c r="F130" s="31"/>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="6">
+      <c r="A131" s="10">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="B131" s="68" t="s">
+      <c r="B131" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="C131" s="69" t="s">
+      <c r="C131" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="D131" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="E131" s="70"/>
-      <c r="F131" s="71"/>
+      <c r="D131" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="43"/>
+      <c r="F131" s="44"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="6">
+      <c r="A132" s="10">
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
-      <c r="B132" s="68"/>
-      <c r="C132" s="69" t="s">
+      <c r="B132" s="42"/>
+      <c r="C132" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D132" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="E132" s="70"/>
-      <c r="F132" s="71"/>
+      <c r="D132" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" s="43"/>
+      <c r="F132" s="44"/>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="6">
+      <c r="A133" s="10">
         <f t="shared" ref="A133:A134" si="3">ROW()-1</f>
         <v>132</v>
       </c>
-      <c r="B133" s="68"/>
-      <c r="C133" s="69" t="s">
+      <c r="B133" s="42"/>
+      <c r="C133" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="E133" s="70"/>
-      <c r="F133" s="71"/>
+      <c r="D133" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E133" s="43"/>
+      <c r="F133" s="44"/>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="6">
+      <c r="A134" s="10">
         <f t="shared" si="3"/>
         <v>133</v>
       </c>
-      <c r="B134" s="68"/>
-      <c r="C134" s="69" t="s">
+      <c r="B134" s="42"/>
+      <c r="C134" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D134" s="69" t="s">
+      <c r="D134" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="70" t="s">
+      <c r="E134" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="F134" s="71"/>
-    </row>
-    <row r="135" spans="1:6" ht="86.25">
-      <c r="A135" s="6">
+      <c r="F134" s="44"/>
+    </row>
+    <row r="135" spans="1:6" ht="81">
+      <c r="A135" s="10">
         <f t="shared" ref="A135" si="4">ROW()-1</f>
         <v>134</v>
       </c>
-      <c r="B135" s="72"/>
-      <c r="C135" s="69" t="s">
+      <c r="B135" s="45"/>
+      <c r="C135" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D135" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="E135" s="70" t="s">
+      <c r="D135" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="F135" s="71"/>
+      <c r="F135" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F130"/>
-  <phoneticPr fontId="11"/>
+  <autoFilter ref="A1:F130" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
@@ -7000,2871 +7209,2871 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="78.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="10.85546875" style="11"/>
+    <col min="1" max="1" width="7.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="25" style="19" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="78.44140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" style="19" customWidth="1"/>
+    <col min="7" max="16384" width="10.88671875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="24" customFormat="1">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="46" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="44">
+      <c r="A2" s="47">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+      <c r="D2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="44">
+      <c r="A3" s="47">
         <v>2</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="44">
+      <c r="A4" s="47">
         <v>3</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="44">
-        <v>4</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="47">
+        <v>4</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="49"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="44">
+      <c r="A6" s="47">
         <v>5</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="44">
+      <c r="A7" s="47">
         <v>6</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="44">
+      <c r="A8" s="47">
         <v>7</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="D8" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="44">
+      <c r="A9" s="47">
         <v>8</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="44">
+      <c r="A10" s="47">
         <v>9</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="49"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
+      <c r="D12" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="49"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
+      <c r="D13" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="49"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" s="41" customFormat="1">
-      <c r="A15" s="43">
+      <c r="D14" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="49"/>
+    </row>
+    <row r="15" spans="1:6" s="32" customFormat="1">
+      <c r="A15" s="52">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="40"/>
-    </row>
-    <row r="16" spans="1:6" s="41" customFormat="1">
-      <c r="A16" s="43">
+      <c r="F15" s="53"/>
+    </row>
+    <row r="16" spans="1:6" s="32" customFormat="1">
+      <c r="A16" s="52">
         <v>15</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="F16" s="40"/>
-    </row>
-    <row r="17" spans="1:6" s="41" customFormat="1">
-      <c r="A17" s="43">
+      <c r="F16" s="53"/>
+    </row>
+    <row r="17" spans="1:6" s="32" customFormat="1">
+      <c r="A17" s="52">
         <v>16</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="38" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="40"/>
+      <c r="F17" s="53"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="6">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="49"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="6">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="49"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="6">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="49"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="6">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="6">
+      <c r="F23" s="49"/>
+    </row>
+    <row r="24" spans="1:6" ht="32.4">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="49"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="6">
+      <c r="A25" s="10">
         <v>23</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="54"/>
+      <c r="C25" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="6">
+      <c r="A26" s="10">
         <v>23</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="49"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="6">
+      <c r="A27" s="10">
         <v>23</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="34.5">
-      <c r="A28" s="6">
+      <c r="F27" s="49"/>
+    </row>
+    <row r="28" spans="1:6" ht="32.4">
+      <c r="A28" s="10">
         <v>23</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="49"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="6">
+      <c r="A29" s="10">
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="49"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="6">
+      <c r="A30" s="10">
         <v>28</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="49"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="6">
+      <c r="A31" s="10">
         <v>29</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="25"/>
+      <c r="C31" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
+      <c r="D31" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="49"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="6">
+      <c r="A32" s="10">
         <v>30</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="49"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="6">
+      <c r="A33" s="10">
         <v>31</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="49"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="6">
+      <c r="A34" s="10">
         <v>32</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="25"/>
+      <c r="C34" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="49"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="6">
+      <c r="A35" s="10">
         <v>33</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="50" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52" t="s">
+      <c r="E35" s="59"/>
+      <c r="F35" s="60" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="6">
+      <c r="A36" s="10">
         <v>34</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="25"/>
+      <c r="C36" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="10"/>
+      <c r="F36" s="49"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="6">
+      <c r="A37" s="10">
         <v>35</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="49"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="6">
+      <c r="A38" s="10">
         <v>36</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="36"/>
+      <c r="C38" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="10"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="49"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="6">
+      <c r="A39" s="10">
         <v>38</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10"/>
+      <c r="D39" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="49"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="6">
+      <c r="A40" s="10">
         <v>39</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="8" t="s">
+      <c r="B40" s="25"/>
+      <c r="C40" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10"/>
+      <c r="D40" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="49"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="6">
+      <c r="A41" s="10">
         <v>40</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="8" t="s">
+      <c r="B41" s="25"/>
+      <c r="C41" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10"/>
+      <c r="D41" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="49"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="6">
+      <c r="A42" s="10">
         <v>41</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="8" t="s">
+      <c r="B42" s="25"/>
+      <c r="C42" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
+      <c r="D42" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="49"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="6">
+      <c r="A43" s="10">
         <v>42</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="8" t="s">
+      <c r="B43" s="25"/>
+      <c r="C43" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="26"/>
+      <c r="E43" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F43" s="10"/>
+      <c r="F43" s="49"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="6">
+      <c r="A44" s="10">
         <v>43</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="8" t="s">
+      <c r="B44" s="25"/>
+      <c r="C44" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="10"/>
+      <c r="D44" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="49"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="6">
+      <c r="A45" s="10">
         <v>44</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="8" t="s">
+      <c r="B45" s="25"/>
+      <c r="C45" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="10"/>
+      <c r="D45" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="49"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="6">
+      <c r="A46" s="10">
         <v>45</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="8" t="s">
+      <c r="B46" s="25"/>
+      <c r="C46" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="26"/>
+      <c r="E46" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="10"/>
+      <c r="F46" s="49"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="6">
+      <c r="A47" s="10">
         <v>46</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="8" t="s">
+      <c r="B47" s="25"/>
+      <c r="C47" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F47" s="10"/>
+      <c r="F47" s="49"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="6">
+      <c r="A48" s="10">
         <v>47</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="8" t="s">
+      <c r="B48" s="25"/>
+      <c r="C48" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9" t="s">
+      <c r="D48" s="26"/>
+      <c r="E48" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="10"/>
+      <c r="F48" s="49"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="6">
+      <c r="A49" s="10">
         <v>48</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="8" t="s">
+      <c r="B49" s="25"/>
+      <c r="C49" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="10"/>
+      <c r="D49" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="49"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="6">
+      <c r="A50" s="10">
         <v>49</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="8" t="s">
+      <c r="B50" s="25"/>
+      <c r="C50" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="F50" s="10"/>
-    </row>
-    <row r="51" spans="1:6" ht="86.25">
-      <c r="A51" s="6">
+      <c r="F50" s="49"/>
+    </row>
+    <row r="51" spans="1:6" ht="81">
+      <c r="A51" s="10">
         <v>50</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="8" t="s">
+      <c r="B51" s="25"/>
+      <c r="C51" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="F51" s="10"/>
+      <c r="F51" s="49"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="6">
+      <c r="A52" s="10">
         <v>51</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="8" t="s">
+      <c r="B52" s="36"/>
+      <c r="C52" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="10"/>
+      <c r="D52" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="49"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="6">
+      <c r="A53" s="10">
         <v>52</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="10"/>
+      <c r="D53" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="49"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="6">
+      <c r="A54" s="10">
         <v>53</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="8" t="s">
+      <c r="B54" s="25"/>
+      <c r="C54" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="10"/>
+      <c r="D54" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="49"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="6">
+      <c r="A55" s="10">
         <v>54</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="8" t="s">
+      <c r="B55" s="25"/>
+      <c r="C55" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="10"/>
+      <c r="D55" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="49"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="6">
+      <c r="A56" s="10">
         <v>55</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="8" t="s">
+      <c r="B56" s="25"/>
+      <c r="C56" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="10"/>
+      <c r="D56" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="49"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="6">
+      <c r="A57" s="10">
         <v>56</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="8" t="s">
+      <c r="B57" s="25"/>
+      <c r="C57" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="10"/>
+      <c r="D57" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="49"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="6">
+      <c r="A58" s="10">
         <v>57</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="8" t="s">
+      <c r="B58" s="25"/>
+      <c r="C58" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="9" t="s">
+      <c r="D58" s="26"/>
+      <c r="E58" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F58" s="10"/>
+      <c r="F58" s="49"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="6">
+      <c r="A59" s="10">
         <v>58</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="8" t="s">
+      <c r="B59" s="25"/>
+      <c r="C59" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9" t="s">
+      <c r="D59" s="26"/>
+      <c r="E59" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F59" s="10"/>
+      <c r="F59" s="49"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="6">
+      <c r="A60" s="10">
         <v>59</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="8" t="s">
+      <c r="B60" s="25"/>
+      <c r="C60" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="10"/>
+      <c r="D60" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="F60" s="49"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="6">
+      <c r="A61" s="10">
         <v>60</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="8" t="s">
+      <c r="B61" s="25"/>
+      <c r="C61" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6" ht="86.25">
-      <c r="A62" s="6">
+      <c r="F61" s="49"/>
+    </row>
+    <row r="62" spans="1:6" ht="81">
+      <c r="A62" s="10">
         <v>61</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="8" t="s">
+      <c r="B62" s="25"/>
+      <c r="C62" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="9" t="s">
+      <c r="D62" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="F62" s="10"/>
+      <c r="F62" s="49"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="6">
+      <c r="A63" s="10">
         <v>62</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="8" t="s">
+      <c r="B63" s="36"/>
+      <c r="C63" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="10"/>
+      <c r="D63" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="49"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="6">
+      <c r="A64" s="10">
         <v>63</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="10"/>
+      <c r="D64" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="49"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="6">
+      <c r="A65" s="10">
         <v>64</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="8" t="s">
+      <c r="B65" s="25"/>
+      <c r="C65" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="10"/>
+      <c r="D65" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="F65" s="49"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="6">
+      <c r="A66" s="10">
         <v>65</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="8" t="s">
+      <c r="B66" s="25"/>
+      <c r="C66" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="10"/>
+      <c r="D66" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" s="49"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="6">
+      <c r="A67" s="10">
         <v>66</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="8" t="s">
+      <c r="B67" s="25"/>
+      <c r="C67" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="9" t="s">
+      <c r="D67" s="26"/>
+      <c r="E67" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F67" s="10"/>
+      <c r="F67" s="49"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="6">
+      <c r="A68" s="10">
         <v>67</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="8" t="s">
+      <c r="B68" s="25"/>
+      <c r="C68" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="9" t="s">
+      <c r="D68" s="26"/>
+      <c r="E68" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F68" s="10"/>
+      <c r="F68" s="49"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="6">
+      <c r="A69" s="10">
         <v>68</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="8" t="s">
+      <c r="B69" s="25"/>
+      <c r="C69" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="9" t="s">
+      <c r="D69" s="26"/>
+      <c r="E69" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F69" s="10"/>
+      <c r="F69" s="49"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="6">
+      <c r="A70" s="10">
         <v>69</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="8" t="s">
+      <c r="B70" s="25"/>
+      <c r="C70" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="9" t="s">
+      <c r="D70" s="26"/>
+      <c r="E70" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F70" s="10"/>
+      <c r="F70" s="49"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="6">
+      <c r="A71" s="10">
         <v>70</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="8" t="s">
+      <c r="B71" s="25"/>
+      <c r="C71" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="10"/>
+      <c r="D71" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="49"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="6">
+      <c r="A72" s="10">
         <v>71</v>
       </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="8" t="s">
+      <c r="B72" s="25"/>
+      <c r="C72" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="F72" s="10"/>
-    </row>
-    <row r="73" spans="1:6" ht="86.25">
-      <c r="A73" s="6">
+      <c r="F72" s="49"/>
+    </row>
+    <row r="73" spans="1:6" ht="81">
+      <c r="A73" s="10">
         <v>72</v>
       </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="8" t="s">
+      <c r="B73" s="25"/>
+      <c r="C73" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="9" t="s">
+      <c r="D73" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="F73" s="10"/>
+      <c r="F73" s="49"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="6">
+      <c r="A74" s="10">
         <v>73</v>
       </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="8" t="s">
+      <c r="B74" s="36"/>
+      <c r="C74" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="10"/>
+      <c r="D74" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="14"/>
+      <c r="F74" s="49"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="6">
+      <c r="A75" s="10">
         <v>74</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F75" s="10"/>
+      <c r="F75" s="49"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="6">
+      <c r="A76" s="10">
         <v>75</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="8" t="s">
+      <c r="B76" s="25"/>
+      <c r="C76" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="10"/>
+      <c r="D76" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="14"/>
+      <c r="F76" s="49"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="6">
+      <c r="A77" s="10">
         <v>76</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="8" t="s">
+      <c r="B77" s="36"/>
+      <c r="C77" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="10"/>
+      <c r="D77" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="14"/>
+      <c r="F77" s="49"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="6">
+      <c r="A78" s="10">
         <v>77</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="10"/>
+      <c r="D78" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="14"/>
+      <c r="F78" s="49"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="6">
+      <c r="A79" s="10">
         <v>78</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="8" t="s">
+      <c r="B79" s="25"/>
+      <c r="C79" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D79" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="10"/>
+      <c r="D79" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="14"/>
+      <c r="F79" s="49"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="6">
+      <c r="A80" s="10">
         <v>79</v>
       </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="8" t="s">
+      <c r="B80" s="25"/>
+      <c r="C80" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="9" t="s">
+      <c r="D80" s="26"/>
+      <c r="E80" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F80" s="10"/>
+      <c r="F80" s="49"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="6">
+      <c r="A81" s="10">
         <v>80</v>
       </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="8" t="s">
+      <c r="B81" s="25"/>
+      <c r="C81" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D81" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="10"/>
+      <c r="D81" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="14"/>
+      <c r="F81" s="49"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="6">
+      <c r="A82" s="10">
         <v>81</v>
       </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="8" t="s">
+      <c r="B82" s="25"/>
+      <c r="C82" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D82" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="10"/>
+      <c r="D82" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="14"/>
+      <c r="F82" s="49"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="6">
+      <c r="A83" s="10">
         <v>82</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="8" t="s">
+      <c r="B83" s="25"/>
+      <c r="C83" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="9" t="s">
+      <c r="D83" s="26"/>
+      <c r="E83" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F83" s="10"/>
+      <c r="F83" s="49"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="6">
+      <c r="A84" s="10">
         <v>83</v>
       </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="8" t="s">
+      <c r="B84" s="25"/>
+      <c r="C84" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="8"/>
-      <c r="E84" s="9" t="s">
+      <c r="D84" s="26"/>
+      <c r="E84" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F84" s="10"/>
+      <c r="F84" s="49"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="6">
+      <c r="A85" s="10">
         <v>84</v>
       </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="8" t="s">
+      <c r="B85" s="25"/>
+      <c r="C85" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="9" t="s">
+      <c r="D85" s="26"/>
+      <c r="E85" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F85" s="10"/>
+      <c r="F85" s="49"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="6">
+      <c r="A86" s="10">
         <v>85</v>
       </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="8" t="s">
+      <c r="B86" s="25"/>
+      <c r="C86" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="10"/>
+      <c r="D86" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="14"/>
+      <c r="F86" s="49"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="6">
+      <c r="A87" s="10">
         <v>86</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="8" t="s">
+      <c r="B87" s="25"/>
+      <c r="C87" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="F87" s="10"/>
-    </row>
-    <row r="88" spans="1:6" ht="86.25">
-      <c r="A88" s="6">
+      <c r="F87" s="49"/>
+    </row>
+    <row r="88" spans="1:6" ht="81">
+      <c r="A88" s="10">
         <v>87</v>
       </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="8" t="s">
+      <c r="B88" s="25"/>
+      <c r="C88" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E88" s="9" t="s">
+      <c r="D88" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="F88" s="10"/>
+      <c r="F88" s="49"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="6">
+      <c r="A89" s="10">
         <v>88</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="8" t="s">
+      <c r="B89" s="36"/>
+      <c r="C89" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="9" t="s">
+      <c r="D89" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F89" s="10"/>
+      <c r="F89" s="49"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="6">
+      <c r="A90" s="10">
         <v>89</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E90" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F90" s="10"/>
+      <c r="F90" s="49"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="6">
+      <c r="A91" s="10">
         <v>90</v>
       </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="8" t="s">
+      <c r="B91" s="25"/>
+      <c r="C91" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="F91" s="10"/>
+      <c r="F91" s="49"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="6">
+      <c r="A92" s="10">
         <v>91</v>
       </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="8" t="s">
+      <c r="B92" s="25"/>
+      <c r="C92" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="9" t="s">
+      <c r="D92" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F92" s="10"/>
+      <c r="F92" s="49"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="6">
+      <c r="A93" s="10">
         <v>92</v>
       </c>
-      <c r="B93" s="12"/>
-      <c r="C93" s="8" t="s">
+      <c r="B93" s="25"/>
+      <c r="C93" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="8"/>
-      <c r="E93" s="9" t="s">
+      <c r="D93" s="26"/>
+      <c r="E93" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F93" s="10"/>
+      <c r="F93" s="49"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="6">
+      <c r="A94" s="10">
         <v>93</v>
       </c>
-      <c r="B94" s="12"/>
-      <c r="C94" s="8" t="s">
+      <c r="B94" s="25"/>
+      <c r="C94" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D94" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="9"/>
-      <c r="F94" s="10"/>
+      <c r="D94" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="14"/>
+      <c r="F94" s="49"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="6">
+      <c r="A95" s="10">
         <v>94</v>
       </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="50" t="s">
+      <c r="B95" s="25"/>
+      <c r="C95" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="D95" s="50" t="s">
+      <c r="D95" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="E95" s="51"/>
-      <c r="F95" s="52" t="s">
+      <c r="E95" s="59"/>
+      <c r="F95" s="60" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="6">
+      <c r="A96" s="10">
         <v>95</v>
       </c>
-      <c r="B96" s="12"/>
-      <c r="C96" s="8" t="s">
+      <c r="B96" s="25"/>
+      <c r="C96" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E96" s="9"/>
-      <c r="F96" s="10"/>
+      <c r="D96" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" s="14"/>
+      <c r="F96" s="49"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="6">
+      <c r="A97" s="10">
         <v>96</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="50" t="s">
+      <c r="B97" s="25"/>
+      <c r="C97" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="D97" s="50" t="s">
+      <c r="D97" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="E97" s="51"/>
-      <c r="F97" s="52" t="s">
+      <c r="E97" s="59"/>
+      <c r="F97" s="60" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="6">
+      <c r="A98" s="10">
         <v>97</v>
       </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="8" t="s">
+      <c r="B98" s="25"/>
+      <c r="C98" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E98" s="9"/>
-      <c r="F98" s="10"/>
+      <c r="D98" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" s="14"/>
+      <c r="F98" s="49"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="6">
+      <c r="A99" s="10">
         <v>98</v>
       </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="50" t="s">
+      <c r="B99" s="25"/>
+      <c r="C99" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="D99" s="50" t="s">
+      <c r="D99" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="E99" s="51"/>
-      <c r="F99" s="52" t="s">
+      <c r="E99" s="59"/>
+      <c r="F99" s="60" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="6">
+      <c r="A100" s="10">
         <v>99</v>
       </c>
-      <c r="B100" s="12"/>
-      <c r="C100" s="8" t="s">
+      <c r="B100" s="25"/>
+      <c r="C100" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D100" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="9"/>
-      <c r="F100" s="10"/>
+      <c r="D100" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="14"/>
+      <c r="F100" s="49"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="6">
+      <c r="A101" s="10">
         <v>100</v>
       </c>
-      <c r="B101" s="13"/>
-      <c r="C101" s="53" t="s">
+      <c r="B101" s="36"/>
+      <c r="C101" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="D101" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="54"/>
-      <c r="F101" s="55"/>
+      <c r="D101" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="62"/>
+      <c r="F101" s="63"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="6">
+      <c r="A102" s="10">
         <v>101</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="10"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="49"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="6">
+      <c r="A103" s="10">
         <v>102</v>
       </c>
-      <c r="B103" s="12"/>
-      <c r="C103" s="50" t="s">
+      <c r="B103" s="25"/>
+      <c r="C103" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D103" s="50" t="s">
+      <c r="D103" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E103" s="51"/>
-      <c r="F103" s="52" t="s">
+      <c r="E103" s="59"/>
+      <c r="F103" s="60" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="6">
+      <c r="A104" s="10">
         <v>103</v>
       </c>
-      <c r="B104" s="12"/>
-      <c r="C104" s="50" t="s">
+      <c r="B104" s="25"/>
+      <c r="C104" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D104" s="50" t="s">
+      <c r="D104" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E104" s="51"/>
-      <c r="F104" s="52" t="s">
+      <c r="E104" s="59"/>
+      <c r="F104" s="60" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="6">
+      <c r="A105" s="10">
         <v>104</v>
       </c>
-      <c r="B105" s="12"/>
-      <c r="C105" s="50" t="s">
+      <c r="B105" s="25"/>
+      <c r="C105" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="D105" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E105" s="51"/>
-      <c r="F105" s="52" t="s">
+      <c r="D105" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="59"/>
+      <c r="F105" s="60" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="6">
+      <c r="A106" s="10">
         <v>105</v>
       </c>
-      <c r="B106" s="12"/>
-      <c r="C106" s="50" t="s">
+      <c r="B106" s="25"/>
+      <c r="C106" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="D106" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" s="51"/>
-      <c r="F106" s="52" t="s">
+      <c r="D106" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="59"/>
+      <c r="F106" s="60" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="6"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="53" t="s">
+      <c r="A107" s="10"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="D107" s="53" t="s">
+      <c r="D107" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="E107" s="54"/>
-      <c r="F107" s="55"/>
+      <c r="E107" s="62"/>
+      <c r="F107" s="63"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="6"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="53" t="s">
+      <c r="A108" s="10"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="D108" s="53" t="s">
+      <c r="D108" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="E108" s="54"/>
-      <c r="F108" s="55"/>
+      <c r="E108" s="62"/>
+      <c r="F108" s="63"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="6"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="53" t="s">
+      <c r="A109" s="10"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="D109" s="53" t="s">
+      <c r="D109" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="E109" s="54"/>
-      <c r="F109" s="55"/>
+      <c r="E109" s="62"/>
+      <c r="F109" s="63"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="6">
+      <c r="A110" s="10">
         <v>106</v>
       </c>
-      <c r="B110" s="12"/>
-      <c r="C110" s="8" t="s">
+      <c r="B110" s="25"/>
+      <c r="C110" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E110" s="9"/>
-      <c r="F110" s="10"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="49"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="6">
+      <c r="A111" s="10">
         <v>107</v>
       </c>
-      <c r="B111" s="12"/>
-      <c r="C111" s="8" t="s">
+      <c r="B111" s="25"/>
+      <c r="C111" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E111" s="9"/>
-      <c r="F111" s="10"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="49"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="6">
+      <c r="A112" s="10">
         <v>108</v>
       </c>
-      <c r="B112" s="12"/>
-      <c r="C112" s="8" t="s">
+      <c r="B112" s="25"/>
+      <c r="C112" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="10"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="49"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="6">
+      <c r="A113" s="10">
         <v>109</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D113" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E113" s="9"/>
-      <c r="F113" s="10"/>
+      <c r="D113" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" s="14"/>
+      <c r="F113" s="49"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="6">
+      <c r="A114" s="10">
         <v>110</v>
       </c>
-      <c r="B114" s="12"/>
-      <c r="C114" s="8" t="s">
+      <c r="B114" s="25"/>
+      <c r="C114" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D114" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="10"/>
+      <c r="D114" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="14"/>
+      <c r="F114" s="49"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="6">
+      <c r="A115" s="10">
         <v>111</v>
       </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="8" t="s">
+      <c r="B115" s="25"/>
+      <c r="C115" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D115" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="10"/>
+      <c r="D115" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" s="14"/>
+      <c r="F115" s="49"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="6">
+      <c r="A116" s="10">
         <v>112</v>
       </c>
-      <c r="B116" s="12"/>
-      <c r="C116" s="8" t="s">
+      <c r="B116" s="25"/>
+      <c r="C116" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D116" s="8"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="10"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="49"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="6">
+      <c r="A117" s="10">
         <v>113</v>
       </c>
-      <c r="B117" s="12"/>
-      <c r="C117" s="8" t="s">
+      <c r="B117" s="25"/>
+      <c r="C117" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E117" s="9"/>
-      <c r="F117" s="10"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="49"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="6">
+      <c r="A118" s="10">
         <v>114</v>
       </c>
-      <c r="B118" s="13"/>
-      <c r="C118" s="8" t="s">
+      <c r="B118" s="36"/>
+      <c r="C118" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D118" s="8"/>
-      <c r="E118" s="9" t="s">
+      <c r="D118" s="26"/>
+      <c r="E118" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F118" s="10"/>
+      <c r="F118" s="49"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="6">
+      <c r="A119" s="10">
         <v>115</v>
       </c>
-      <c r="B119" s="47" t="s">
+      <c r="B119" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F119" s="10"/>
+      <c r="F119" s="49"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="6">
+      <c r="A120" s="10">
         <v>116</v>
       </c>
-      <c r="B120" s="49"/>
-      <c r="C120" s="8" t="s">
+      <c r="B120" s="51"/>
+      <c r="C120" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E120" s="9"/>
-      <c r="F120" s="10"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="49"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="6">
+      <c r="A121" s="10">
         <v>117</v>
       </c>
-      <c r="B121" s="47" t="s">
+      <c r="B121" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C121" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D121" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E121" s="9"/>
-      <c r="F121" s="10"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="49"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="6">
+      <c r="A122" s="10">
         <v>118</v>
       </c>
-      <c r="B122" s="48"/>
-      <c r="C122" s="8" t="s">
+      <c r="B122" s="50"/>
+      <c r="C122" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E122" s="9"/>
-      <c r="F122" s="10"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="49"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="6">
+      <c r="A123" s="10">
         <v>119</v>
       </c>
-      <c r="B123" s="49"/>
-      <c r="C123" s="8" t="s">
+      <c r="B123" s="51"/>
+      <c r="C123" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D123" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E123" s="9"/>
-      <c r="F123" s="10"/>
+      <c r="D123" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="14"/>
+      <c r="F123" s="49"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="6">
+      <c r="A124" s="10">
         <v>120</v>
       </c>
-      <c r="B124" s="45" t="s">
+      <c r="B124" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="D124" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E124" s="9"/>
-      <c r="F124" s="15"/>
+      <c r="D124" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" s="14"/>
+      <c r="F124" s="65"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="6"/>
-      <c r="B125" s="46"/>
-      <c r="C125" s="8" t="s">
+      <c r="A125" s="10"/>
+      <c r="B125" s="66"/>
+      <c r="C125" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="D125" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E125" s="9"/>
-      <c r="F125" s="15"/>
+      <c r="D125" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" s="14"/>
+      <c r="F125" s="65"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="6">
+      <c r="A126" s="10">
         <v>121</v>
       </c>
-      <c r="B126" s="46"/>
-      <c r="C126" s="8" t="s">
+      <c r="B126" s="66"/>
+      <c r="C126" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D126" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E126" s="9"/>
-      <c r="F126" s="10"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="49"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="6">
+      <c r="A127" s="10">
         <v>122</v>
       </c>
-      <c r="B127" s="46"/>
-      <c r="C127" s="8" t="s">
+      <c r="B127" s="66"/>
+      <c r="C127" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E127" s="9"/>
-      <c r="F127" s="10"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="49"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="6">
+      <c r="A128" s="10">
         <v>123</v>
       </c>
-      <c r="B128" s="46"/>
-      <c r="C128" s="8" t="s">
+      <c r="B128" s="66"/>
+      <c r="C128" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="D128" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E128" s="9"/>
-      <c r="F128" s="10"/>
+      <c r="D128" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" s="14"/>
+      <c r="F128" s="49"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="6">
+      <c r="A129" s="10">
         <v>124</v>
       </c>
-      <c r="B129" s="46"/>
-      <c r="C129" s="8" t="s">
+      <c r="B129" s="66"/>
+      <c r="C129" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="E129" s="9"/>
-      <c r="F129" s="10"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="49"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="6">
+      <c r="A130" s="10">
         <v>120</v>
       </c>
-      <c r="B130" s="47" t="s">
+      <c r="B130" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="C130" s="14" t="s">
+      <c r="C130" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="D130" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E130" s="9"/>
-      <c r="F130" s="15">
+      <c r="D130" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="14"/>
+      <c r="F130" s="65">
         <v>42184</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="6"/>
-      <c r="B131" s="48"/>
-      <c r="C131" s="14" t="s">
+      <c r="A131" s="10"/>
+      <c r="B131" s="50"/>
+      <c r="C131" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="D131" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E131" s="9"/>
-      <c r="F131" s="15">
+      <c r="D131" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="14"/>
+      <c r="F131" s="65">
         <v>42184</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="6">
+      <c r="A132" s="10">
         <v>121</v>
       </c>
-      <c r="B132" s="48"/>
-      <c r="C132" s="8" t="s">
+      <c r="B132" s="50"/>
+      <c r="C132" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D132" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E132" s="9"/>
-      <c r="F132" s="10"/>
+      <c r="D132" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" s="14"/>
+      <c r="F132" s="49"/>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="6">
+      <c r="A133" s="10">
         <v>122</v>
       </c>
-      <c r="B133" s="48"/>
-      <c r="C133" s="8" t="s">
+      <c r="B133" s="50"/>
+      <c r="C133" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D133" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E133" s="9"/>
-      <c r="F133" s="10"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="49"/>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="6">
+      <c r="A134" s="10">
         <v>123</v>
       </c>
-      <c r="B134" s="48"/>
-      <c r="C134" s="8" t="s">
+      <c r="B134" s="50"/>
+      <c r="C134" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D134" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E134" s="9"/>
-      <c r="F134" s="10"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="49"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="6">
+      <c r="A135" s="10">
         <v>124</v>
       </c>
-      <c r="B135" s="48"/>
-      <c r="C135" s="8" t="s">
+      <c r="B135" s="50"/>
+      <c r="C135" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D135" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E135" s="9"/>
-      <c r="F135" s="10"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="49"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="6">
+      <c r="A136" s="10">
         <v>125</v>
       </c>
-      <c r="B136" s="48"/>
-      <c r="C136" s="8" t="s">
+      <c r="B136" s="50"/>
+      <c r="C136" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D136" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E136" s="9" t="s">
+      <c r="E136" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="F136" s="10"/>
+      <c r="F136" s="49"/>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="6">
+      <c r="A137" s="10">
         <v>126</v>
       </c>
-      <c r="B137" s="48"/>
-      <c r="C137" s="14" t="s">
+      <c r="B137" s="50"/>
+      <c r="C137" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D137" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E137" s="9" t="s">
+      <c r="E137" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="F137" s="10"/>
+      <c r="F137" s="49"/>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="6">
+      <c r="A138" s="10">
         <v>126</v>
       </c>
-      <c r="B138" s="49"/>
-      <c r="C138" s="14" t="s">
+      <c r="B138" s="51"/>
+      <c r="C138" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D138" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E138" s="9"/>
-      <c r="F138" s="10"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="49"/>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="6">
+      <c r="A139" s="10">
         <v>127</v>
       </c>
-      <c r="B139" s="47" t="s">
+      <c r="B139" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D139" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E139" s="9" t="s">
+      <c r="E139" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="F139" s="10"/>
+      <c r="F139" s="49"/>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="6">
+      <c r="A140" s="10">
         <v>128</v>
       </c>
-      <c r="B140" s="48"/>
-      <c r="C140" s="8" t="s">
+      <c r="B140" s="50"/>
+      <c r="C140" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D140" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E140" s="9"/>
-      <c r="F140" s="10"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="49"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="6">
+      <c r="A141" s="10">
         <v>129</v>
       </c>
-      <c r="B141" s="48"/>
-      <c r="C141" s="8" t="s">
+      <c r="B141" s="50"/>
+      <c r="C141" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D141" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E141" s="9"/>
-      <c r="F141" s="10"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="49"/>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="6">
+      <c r="A142" s="10">
         <v>130</v>
       </c>
-      <c r="B142" s="49"/>
-      <c r="C142" s="8" t="s">
+      <c r="B142" s="51"/>
+      <c r="C142" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D142" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E142" s="9"/>
-      <c r="F142" s="10"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="49"/>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="6">
+      <c r="A143" s="10">
         <v>131</v>
       </c>
-      <c r="B143" s="47" t="s">
+      <c r="B143" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D143" s="8" t="s">
+      <c r="D143" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E143" s="9" t="s">
+      <c r="E143" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="F143" s="10"/>
+      <c r="F143" s="49"/>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="6">
+      <c r="A144" s="10">
         <v>132</v>
       </c>
-      <c r="B144" s="48"/>
-      <c r="C144" s="8" t="s">
+      <c r="B144" s="50"/>
+      <c r="C144" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D144" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E144" s="9"/>
-      <c r="F144" s="10"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="49"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="6">
+      <c r="A145" s="10">
         <v>133</v>
       </c>
-      <c r="B145" s="47" t="s">
+      <c r="B145" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D145" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E145" s="9"/>
-      <c r="F145" s="10"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="49"/>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="6">
+      <c r="A146" s="10">
         <v>134</v>
       </c>
-      <c r="B146" s="48"/>
-      <c r="C146" s="8" t="s">
+      <c r="B146" s="50"/>
+      <c r="C146" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D146" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E146" s="9"/>
-      <c r="F146" s="10"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="49"/>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="6">
+      <c r="A147" s="10">
         <v>135</v>
       </c>
-      <c r="B147" s="49"/>
-      <c r="C147" s="8" t="s">
+      <c r="B147" s="51"/>
+      <c r="C147" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D147" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E147" s="9"/>
-      <c r="F147" s="10"/>
+      <c r="D147" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" s="14"/>
+      <c r="F147" s="49"/>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="6">
+      <c r="A148" s="10">
         <v>136</v>
       </c>
-      <c r="B148" s="47" t="s">
+      <c r="B148" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C148" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D148" s="8" t="s">
+      <c r="D148" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E148" s="9"/>
-      <c r="F148" s="10"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="49"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="6">
+      <c r="A149" s="10">
         <v>137</v>
       </c>
-      <c r="B149" s="48"/>
-      <c r="C149" s="8" t="s">
+      <c r="B149" s="50"/>
+      <c r="C149" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D149" s="8" t="s">
+      <c r="D149" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E149" s="9"/>
-      <c r="F149" s="10"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="49"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="6">
+      <c r="A150" s="10">
         <v>138</v>
       </c>
-      <c r="B150" s="49"/>
-      <c r="C150" s="8" t="s">
+      <c r="B150" s="51"/>
+      <c r="C150" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="D150" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E150" s="9"/>
-      <c r="F150" s="10"/>
+      <c r="D150" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E150" s="14"/>
+      <c r="F150" s="49"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="6">
+      <c r="A151" s="10">
         <v>139</v>
       </c>
-      <c r="B151" s="35" t="s">
+      <c r="B151" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8" t="s">
+      <c r="C151" s="26"/>
+      <c r="D151" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="E151" s="9"/>
-      <c r="F151" s="10"/>
-    </row>
-    <row r="152" spans="1:6" s="41" customFormat="1">
-      <c r="A152" s="36">
+      <c r="E151" s="14"/>
+      <c r="F151" s="49"/>
+    </row>
+    <row r="152" spans="1:6" s="32" customFormat="1">
+      <c r="A152" s="35">
         <v>140</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B152" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C152" s="38" t="s">
+      <c r="C152" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="D152" s="38" t="s">
+      <c r="D152" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E152" s="42"/>
-      <c r="F152" s="40"/>
-    </row>
-    <row r="153" spans="1:6" s="41" customFormat="1">
-      <c r="A153" s="36">
+      <c r="E152" s="33"/>
+      <c r="F152" s="53"/>
+    </row>
+    <row r="153" spans="1:6" s="32" customFormat="1">
+      <c r="A153" s="35">
         <v>141</v>
       </c>
-      <c r="B153" s="12"/>
-      <c r="C153" s="38" t="s">
+      <c r="B153" s="25"/>
+      <c r="C153" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D153" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E153" s="42" t="s">
+      <c r="D153" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E153" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="F153" s="40"/>
-    </row>
-    <row r="154" spans="1:6" s="41" customFormat="1">
-      <c r="A154" s="36">
+      <c r="F153" s="53"/>
+    </row>
+    <row r="154" spans="1:6" s="32" customFormat="1">
+      <c r="A154" s="35">
         <v>142</v>
       </c>
-      <c r="B154" s="12"/>
-      <c r="C154" s="38" t="s">
+      <c r="B154" s="25"/>
+      <c r="C154" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="D154" s="38" t="s">
+      <c r="D154" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E154" s="39" t="s">
+      <c r="E154" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="F154" s="40"/>
-    </row>
-    <row r="155" spans="1:6" s="41" customFormat="1" ht="15" customHeight="1">
-      <c r="A155" s="36">
+      <c r="F154" s="53"/>
+    </row>
+    <row r="155" spans="1:6" s="32" customFormat="1" ht="15" customHeight="1">
+      <c r="A155" s="35">
         <v>143</v>
       </c>
-      <c r="B155" s="73" t="s">
+      <c r="B155" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="C155" s="38" t="s">
+      <c r="C155" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="D155" s="38" t="s">
+      <c r="D155" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E155" s="39" t="s">
+      <c r="E155" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="F155" s="40"/>
-    </row>
-    <row r="156" spans="1:6" s="41" customFormat="1" ht="34.5">
-      <c r="A156" s="36">
+      <c r="F155" s="53"/>
+    </row>
+    <row r="156" spans="1:6" s="32" customFormat="1" ht="32.4">
+      <c r="A156" s="35">
         <v>144</v>
       </c>
-      <c r="B156" s="73"/>
-      <c r="C156" s="38" t="s">
+      <c r="B156" s="69"/>
+      <c r="C156" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="D156" s="38" t="s">
+      <c r="D156" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="E156" s="39" t="s">
+      <c r="E156" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="F156" s="40"/>
-    </row>
-    <row r="157" spans="1:6" s="41" customFormat="1">
-      <c r="A157" s="36">
+      <c r="F156" s="53"/>
+    </row>
+    <row r="157" spans="1:6" s="32" customFormat="1">
+      <c r="A157" s="35">
         <v>145</v>
       </c>
-      <c r="B157" s="73"/>
-      <c r="C157" s="38" t="s">
+      <c r="B157" s="69"/>
+      <c r="C157" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D157" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E157" s="42" t="s">
+      <c r="D157" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="F157" s="40"/>
-    </row>
-    <row r="158" spans="1:6" s="41" customFormat="1">
-      <c r="A158" s="36">
+      <c r="F157" s="53"/>
+    </row>
+    <row r="158" spans="1:6" s="32" customFormat="1">
+      <c r="A158" s="35">
         <v>146</v>
       </c>
-      <c r="B158" s="73"/>
-      <c r="C158" s="38" t="s">
+      <c r="B158" s="69"/>
+      <c r="C158" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D158" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E158" s="42"/>
-      <c r="F158" s="40"/>
-    </row>
-    <row r="159" spans="1:6" s="41" customFormat="1">
-      <c r="A159" s="36">
+      <c r="D158" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" s="33"/>
+      <c r="F158" s="53"/>
+    </row>
+    <row r="159" spans="1:6" s="32" customFormat="1">
+      <c r="A159" s="35">
         <v>147</v>
       </c>
-      <c r="B159" s="73"/>
-      <c r="C159" s="50" t="s">
+      <c r="B159" s="69"/>
+      <c r="C159" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="D159" s="50" t="s">
+      <c r="D159" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="E159" s="51" t="s">
+      <c r="E159" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F159" s="52" t="s">
+      <c r="F159" s="60" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="41" customFormat="1">
-      <c r="A160" s="36">
+    <row r="160" spans="1:6" s="32" customFormat="1">
+      <c r="A160" s="35">
         <v>149</v>
       </c>
-      <c r="B160" s="73"/>
-      <c r="C160" s="38" t="s">
+      <c r="B160" s="69"/>
+      <c r="C160" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D160" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E160" s="42"/>
-      <c r="F160" s="40"/>
-    </row>
-    <row r="161" spans="1:6" s="41" customFormat="1">
-      <c r="A161" s="36">
+      <c r="D160" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E160" s="33"/>
+      <c r="F160" s="53"/>
+    </row>
+    <row r="161" spans="1:6" s="32" customFormat="1">
+      <c r="A161" s="35">
         <v>150</v>
       </c>
-      <c r="B161" s="73"/>
-      <c r="C161" s="50" t="s">
+      <c r="B161" s="69"/>
+      <c r="C161" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="D161" s="50" t="s">
+      <c r="D161" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="E161" s="51"/>
-      <c r="F161" s="52" t="s">
+      <c r="E161" s="59"/>
+      <c r="F161" s="60" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="41" customFormat="1">
-      <c r="A162" s="36">
+    <row r="162" spans="1:6" s="32" customFormat="1">
+      <c r="A162" s="35">
         <v>152</v>
       </c>
-      <c r="B162" s="73"/>
-      <c r="C162" s="38" t="s">
+      <c r="B162" s="69"/>
+      <c r="C162" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D162" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E162" s="42"/>
-      <c r="F162" s="40"/>
-    </row>
-    <row r="163" spans="1:6" s="41" customFormat="1">
-      <c r="A163" s="36">
+      <c r="D162" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" s="33"/>
+      <c r="F162" s="53"/>
+    </row>
+    <row r="163" spans="1:6" s="32" customFormat="1">
+      <c r="A163" s="35">
         <v>153</v>
       </c>
-      <c r="B163" s="73"/>
-      <c r="C163" s="50" t="s">
+      <c r="B163" s="69"/>
+      <c r="C163" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="D163" s="50" t="s">
+      <c r="D163" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="E163" s="51"/>
-      <c r="F163" s="52" t="s">
+      <c r="E163" s="59"/>
+      <c r="F163" s="60" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="164" spans="1:6" s="41" customFormat="1">
-      <c r="A164" s="36">
+    <row r="164" spans="1:6" s="32" customFormat="1">
+      <c r="A164" s="35">
         <v>155</v>
       </c>
-      <c r="B164" s="73"/>
-      <c r="C164" s="38" t="s">
+      <c r="B164" s="69"/>
+      <c r="C164" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D164" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E164" s="42"/>
-      <c r="F164" s="40"/>
-    </row>
-    <row r="165" spans="1:6" s="41" customFormat="1">
-      <c r="A165" s="36">
+      <c r="D164" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E164" s="33"/>
+      <c r="F164" s="53"/>
+    </row>
+    <row r="165" spans="1:6" s="32" customFormat="1">
+      <c r="A165" s="35">
         <v>156</v>
       </c>
-      <c r="B165" s="73"/>
-      <c r="C165" s="50" t="s">
+      <c r="B165" s="69"/>
+      <c r="C165" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="D165" s="50" t="s">
+      <c r="D165" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="E165" s="51"/>
-      <c r="F165" s="52" t="s">
+      <c r="E165" s="59"/>
+      <c r="F165" s="60" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="166" spans="1:6" s="41" customFormat="1">
-      <c r="A166" s="36">
+    <row r="166" spans="1:6" s="32" customFormat="1">
+      <c r="A166" s="35">
         <v>163</v>
       </c>
-      <c r="B166" s="58" t="s">
+      <c r="B166" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="C166" s="38" t="s">
+      <c r="C166" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="D166" s="38" t="s">
+      <c r="D166" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="E166" s="42" t="s">
+      <c r="E166" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="F166" s="40"/>
-    </row>
-    <row r="167" spans="1:6" s="41" customFormat="1">
-      <c r="A167" s="36">
+      <c r="F166" s="53"/>
+    </row>
+    <row r="167" spans="1:6" s="32" customFormat="1">
+      <c r="A167" s="35">
         <v>165</v>
       </c>
-      <c r="B167" s="59"/>
-      <c r="C167" s="38" t="s">
+      <c r="B167" s="40"/>
+      <c r="C167" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="D167" s="38" t="s">
+      <c r="D167" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E167" s="42" t="s">
+      <c r="E167" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="F167" s="40"/>
-    </row>
-    <row r="168" spans="1:6" s="41" customFormat="1">
-      <c r="A168" s="36">
+      <c r="F167" s="53"/>
+    </row>
+    <row r="168" spans="1:6" s="32" customFormat="1">
+      <c r="A168" s="35">
         <v>166</v>
       </c>
-      <c r="B168" s="74" t="s">
+      <c r="B168" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="C168" s="38" t="s">
+      <c r="C168" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="D168" s="38" t="s">
+      <c r="D168" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E168" s="42" t="s">
+      <c r="E168" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="F168" s="40"/>
-    </row>
-    <row r="169" spans="1:6" s="41" customFormat="1">
-      <c r="A169" s="36">
+      <c r="F168" s="53"/>
+    </row>
+    <row r="169" spans="1:6" s="32" customFormat="1">
+      <c r="A169" s="35">
         <v>167</v>
       </c>
-      <c r="B169" s="74"/>
-      <c r="C169" s="38" t="s">
+      <c r="B169" s="70"/>
+      <c r="C169" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="D169" s="38" t="s">
+      <c r="D169" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E169" s="42"/>
-      <c r="F169" s="40"/>
-    </row>
-    <row r="170" spans="1:6" s="41" customFormat="1">
-      <c r="A170" s="36">
+      <c r="E169" s="33"/>
+      <c r="F169" s="53"/>
+    </row>
+    <row r="170" spans="1:6" s="32" customFormat="1">
+      <c r="A170" s="35">
         <v>168</v>
       </c>
-      <c r="B170" s="59"/>
-      <c r="C170" s="38" t="s">
+      <c r="B170" s="40"/>
+      <c r="C170" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="D170" s="38" t="s">
+      <c r="D170" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E170" s="42"/>
-      <c r="F170" s="40"/>
-    </row>
-    <row r="171" spans="1:6" s="41" customFormat="1">
-      <c r="A171" s="36">
+      <c r="E170" s="33"/>
+      <c r="F170" s="53"/>
+    </row>
+    <row r="171" spans="1:6" s="32" customFormat="1">
+      <c r="A171" s="35">
         <v>169</v>
       </c>
-      <c r="B171" s="60"/>
-      <c r="C171" s="38" t="s">
+      <c r="B171" s="71"/>
+      <c r="C171" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="D171" s="38" t="s">
+      <c r="D171" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E171" s="42"/>
-      <c r="F171" s="40"/>
-    </row>
-    <row r="172" spans="1:6" s="41" customFormat="1">
-      <c r="A172" s="36">
+      <c r="E171" s="33"/>
+      <c r="F171" s="53"/>
+    </row>
+    <row r="172" spans="1:6" s="32" customFormat="1">
+      <c r="A172" s="35">
         <v>170</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B172" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C172" s="38" t="s">
+      <c r="C172" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="D172" s="38" t="s">
+      <c r="D172" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E172" s="42" t="s">
+      <c r="E172" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="F172" s="40"/>
-    </row>
-    <row r="173" spans="1:6" s="41" customFormat="1">
-      <c r="A173" s="36">
+      <c r="F172" s="53"/>
+    </row>
+    <row r="173" spans="1:6" s="32" customFormat="1">
+      <c r="A173" s="35">
         <v>171</v>
       </c>
-      <c r="B173" s="75"/>
-      <c r="C173" s="38" t="s">
+      <c r="B173" s="72"/>
+      <c r="C173" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="D173" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E173" s="42"/>
-      <c r="F173" s="40"/>
-    </row>
-    <row r="174" spans="1:6" s="41" customFormat="1">
-      <c r="A174" s="36">
+      <c r="D173" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" s="33"/>
+      <c r="F173" s="53"/>
+    </row>
+    <row r="174" spans="1:6" s="32" customFormat="1">
+      <c r="A174" s="35">
         <v>172</v>
       </c>
-      <c r="B174" s="75"/>
-      <c r="C174" s="38" t="s">
+      <c r="B174" s="72"/>
+      <c r="C174" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="D174" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E174" s="42"/>
-      <c r="F174" s="40"/>
-    </row>
-    <row r="175" spans="1:6" s="41" customFormat="1">
-      <c r="A175" s="36">
+      <c r="D174" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E174" s="33"/>
+      <c r="F174" s="53"/>
+    </row>
+    <row r="175" spans="1:6" s="32" customFormat="1">
+      <c r="A175" s="35">
         <v>173</v>
       </c>
-      <c r="B175" s="75"/>
-      <c r="C175" s="38" t="s">
+      <c r="B175" s="72"/>
+      <c r="C175" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="D175" s="38" t="s">
+      <c r="D175" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E175" s="42"/>
-      <c r="F175" s="40"/>
-    </row>
-    <row r="176" spans="1:6" s="41" customFormat="1">
-      <c r="A176" s="36">
+      <c r="E175" s="33"/>
+      <c r="F175" s="53"/>
+    </row>
+    <row r="176" spans="1:6" s="32" customFormat="1">
+      <c r="A176" s="35">
         <v>174</v>
       </c>
-      <c r="B176" s="75"/>
-      <c r="C176" s="38" t="s">
+      <c r="B176" s="72"/>
+      <c r="C176" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D176" s="38" t="s">
+      <c r="D176" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E176" s="42" t="s">
+      <c r="E176" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="F176" s="40"/>
-    </row>
-    <row r="177" spans="1:6" s="41" customFormat="1">
-      <c r="A177" s="36">
+      <c r="F176" s="53"/>
+    </row>
+    <row r="177" spans="1:6" s="32" customFormat="1">
+      <c r="A177" s="35">
         <v>175</v>
       </c>
-      <c r="B177" s="75"/>
-      <c r="C177" s="38" t="s">
+      <c r="B177" s="72"/>
+      <c r="C177" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D177" s="38" t="s">
+      <c r="D177" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="E177" s="42"/>
-      <c r="F177" s="40"/>
-    </row>
-    <row r="178" spans="1:6" s="41" customFormat="1">
-      <c r="A178" s="36">
+      <c r="E177" s="33"/>
+      <c r="F177" s="53"/>
+    </row>
+    <row r="178" spans="1:6" s="32" customFormat="1">
+      <c r="A178" s="35">
         <v>176</v>
       </c>
-      <c r="B178" s="13"/>
-      <c r="C178" s="38" t="s">
+      <c r="B178" s="36"/>
+      <c r="C178" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D178" s="38" t="s">
+      <c r="D178" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="E178" s="42"/>
-      <c r="F178" s="40"/>
-    </row>
-    <row r="179" spans="1:6" s="41" customFormat="1">
-      <c r="A179" s="36">
+      <c r="E178" s="33"/>
+      <c r="F178" s="53"/>
+    </row>
+    <row r="179" spans="1:6" s="32" customFormat="1">
+      <c r="A179" s="35">
         <v>177</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C179" s="38" t="s">
+      <c r="C179" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="D179" s="38" t="s">
+      <c r="D179" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E179" s="42" t="s">
+      <c r="E179" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="F179" s="40"/>
-    </row>
-    <row r="180" spans="1:6" s="41" customFormat="1">
-      <c r="A180" s="36">
+      <c r="F179" s="53"/>
+    </row>
+    <row r="180" spans="1:6" s="32" customFormat="1">
+      <c r="A180" s="35">
         <v>178</v>
       </c>
-      <c r="B180" s="12"/>
-      <c r="C180" s="38" t="s">
+      <c r="B180" s="25"/>
+      <c r="C180" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="D180" s="38" t="s">
+      <c r="D180" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E180" s="42" t="s">
+      <c r="E180" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="F180" s="40"/>
-    </row>
-    <row r="181" spans="1:6" s="41" customFormat="1" ht="51.75">
-      <c r="A181" s="36"/>
-      <c r="B181" s="12"/>
-      <c r="C181" s="38" t="s">
+      <c r="F180" s="53"/>
+    </row>
+    <row r="181" spans="1:6" s="32" customFormat="1" ht="48.6">
+      <c r="A181" s="35"/>
+      <c r="B181" s="25"/>
+      <c r="C181" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="D181" s="38" t="s">
+      <c r="D181" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E181" s="42" t="s">
+      <c r="E181" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="F181" s="40"/>
-    </row>
-    <row r="182" spans="1:6" s="41" customFormat="1">
-      <c r="A182" s="36">
+      <c r="F181" s="53"/>
+    </row>
+    <row r="182" spans="1:6" s="32" customFormat="1">
+      <c r="A182" s="35">
         <v>179</v>
       </c>
-      <c r="B182" s="73" t="s">
+      <c r="B182" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="C182" s="38" t="s">
+      <c r="C182" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="D182" s="38" t="s">
+      <c r="D182" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E182" s="42" t="s">
+      <c r="E182" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="F182" s="40"/>
-    </row>
-    <row r="183" spans="1:6" s="41" customFormat="1">
-      <c r="A183" s="36">
+      <c r="F182" s="53"/>
+    </row>
+    <row r="183" spans="1:6" s="32" customFormat="1">
+      <c r="A183" s="35">
         <v>180</v>
       </c>
-      <c r="B183" s="73"/>
-      <c r="C183" s="38" t="s">
+      <c r="B183" s="69"/>
+      <c r="C183" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="D183" s="38" t="s">
+      <c r="D183" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E183" s="42" t="s">
+      <c r="E183" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="F183" s="40"/>
-    </row>
-    <row r="184" spans="1:6" s="41" customFormat="1">
-      <c r="A184" s="36">
+      <c r="F183" s="53"/>
+    </row>
+    <row r="184" spans="1:6" s="32" customFormat="1">
+      <c r="A184" s="35">
         <v>181</v>
       </c>
-      <c r="B184" s="73"/>
-      <c r="C184" s="38" t="s">
+      <c r="B184" s="69"/>
+      <c r="C184" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="D184" s="38" t="s">
+      <c r="D184" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E184" s="42" t="s">
+      <c r="E184" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F184" s="40"/>
-    </row>
-    <row r="185" spans="1:6" s="41" customFormat="1">
-      <c r="A185" s="36">
+      <c r="F184" s="53"/>
+    </row>
+    <row r="185" spans="1:6" s="32" customFormat="1">
+      <c r="A185" s="35">
         <v>182</v>
       </c>
-      <c r="B185" s="76"/>
-      <c r="C185" s="38" t="s">
+      <c r="B185" s="73"/>
+      <c r="C185" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="D185" s="38" t="s">
+      <c r="D185" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E185" s="42" t="s">
+      <c r="E185" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="F185" s="40"/>
-    </row>
-    <row r="186" spans="1:6" s="41" customFormat="1">
-      <c r="A186" s="36">
+      <c r="F185" s="53"/>
+    </row>
+    <row r="186" spans="1:6" s="32" customFormat="1">
+      <c r="A186" s="35">
         <v>183</v>
       </c>
-      <c r="B186" s="58" t="s">
+      <c r="B186" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="C186" s="38" t="s">
+      <c r="C186" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D186" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E186" s="42"/>
-      <c r="F186" s="40"/>
-    </row>
-    <row r="187" spans="1:6" s="41" customFormat="1" ht="15" customHeight="1">
-      <c r="A187" s="36">
+      <c r="D186" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E186" s="33"/>
+      <c r="F186" s="53"/>
+    </row>
+    <row r="187" spans="1:6" s="32" customFormat="1" ht="15" customHeight="1">
+      <c r="A187" s="35">
         <v>184</v>
       </c>
-      <c r="B187" s="61"/>
-      <c r="C187" s="38" t="s">
+      <c r="B187" s="74"/>
+      <c r="C187" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D187" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E187" s="56"/>
-      <c r="F187" s="40"/>
-    </row>
-    <row r="188" spans="1:6" s="41" customFormat="1">
-      <c r="A188" s="36">
+      <c r="D187" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E187" s="75"/>
+      <c r="F187" s="53"/>
+    </row>
+    <row r="188" spans="1:6" s="32" customFormat="1">
+      <c r="A188" s="35">
         <v>185</v>
       </c>
-      <c r="B188" s="74" t="s">
+      <c r="B188" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="C188" s="38" t="s">
+      <c r="C188" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D188" s="38" t="s">
+      <c r="D188" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E188" s="42"/>
-      <c r="F188" s="40"/>
-    </row>
-    <row r="189" spans="1:6" s="41" customFormat="1">
-      <c r="A189" s="36">
+      <c r="E188" s="33"/>
+      <c r="F188" s="53"/>
+    </row>
+    <row r="189" spans="1:6" s="32" customFormat="1">
+      <c r="A189" s="35">
         <v>186</v>
       </c>
-      <c r="B189" s="74"/>
-      <c r="C189" s="38" t="s">
+      <c r="B189" s="70"/>
+      <c r="C189" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="D189" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E189" s="56"/>
-      <c r="F189" s="40"/>
-    </row>
-    <row r="190" spans="1:6" s="41" customFormat="1">
-      <c r="A190" s="36">
+      <c r="D189" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E189" s="75"/>
+      <c r="F189" s="53"/>
+    </row>
+    <row r="190" spans="1:6" s="32" customFormat="1">
+      <c r="A190" s="35">
         <v>187</v>
       </c>
-      <c r="B190" s="77"/>
-      <c r="C190" s="57" t="s">
+      <c r="B190" s="76"/>
+      <c r="C190" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="D190" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E190" s="42"/>
-      <c r="F190" s="40"/>
+      <c r="D190" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E190" s="33"/>
+      <c r="F190" s="53"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F190"/>
+  <autoFilter ref="A1:F190" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="5">
     <mergeCell ref="B155:B165"/>
     <mergeCell ref="B168:B169"/>
@@ -9872,7 +10081,7 @@
     <mergeCell ref="B182:B185"/>
     <mergeCell ref="B188:B190"/>
   </mergeCells>
-  <phoneticPr fontId="11"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -9883,39 +10092,39 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:B77"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="2.42578125" style="30"/>
+    <col min="1" max="16384" width="2.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="17.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:1" ht="14.4">
+      <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17.25">
-      <c r="A35" s="29" t="s">
+    <row r="35" spans="1:2" ht="14.4">
+      <c r="A35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="29"/>
-    </row>
-    <row r="45" spans="1:2" ht="17.25">
-      <c r="A45" s="29" t="s">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="45" spans="1:2" ht="14.4">
+      <c r="A45" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="17.25">
-      <c r="A66" s="29" t="s">
+    <row r="66" spans="1:1" ht="14.4">
+      <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="17.25">
-      <c r="A77" s="29" t="s">
+    <row r="77" spans="1:1" ht="14.4">
+      <c r="A77" s="1" t="s">
         <v>204</v>
       </c>
     </row>
